--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -15717,18 +15717,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bigint(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新平台新增（20200914）讨论确认凡是用户ID字段都改为UID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATOR_CODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15798,6 +15790,14 @@
   </si>
   <si>
     <t>MP_Depart_Leader部门负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新平台新增（20200914）讨论确认凡是用户ID字段都改为USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15805,7 +15805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15918,6 +15918,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -16043,7 +16060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -16115,6 +16132,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16127,11 +16149,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16443,8 +16462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16469,44 +16488,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>4720</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="52" t="s">
         <v>4722</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>4817</v>
-      </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="M1" s="52" t="s">
+        <v>4815</v>
+      </c>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="16" t="s">
         <v>4046</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="S1" s="47" t="s">
-        <v>4816</v>
-      </c>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
+      <c r="S1" s="52" t="s">
+        <v>4814</v>
+      </c>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
     </row>
@@ -16979,33 +16998,33 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="52" t="s">
         <v>4761</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="52" t="s">
         <v>4723</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="S13" s="47" t="s">
+      <c r="S13" s="52" t="s">
         <v>4772</v>
       </c>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
       <c r="V13" s="16" t="s">
         <v>4047</v>
       </c>
@@ -17120,11 +17139,11 @@
         <v>4091</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="53" t="s">
         <v>4771</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
       <c r="P16" s="17" t="s">
         <v>4045</v>
       </c>
@@ -17731,18 +17750,18 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="47" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B28" s="48" t="s">
         <v>4801</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="C28" s="48" t="s">
         <v>4803</v>
       </c>
-      <c r="C28" s="52" t="s">
-        <v>4805</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53" t="s">
-        <v>4813</v>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49" t="s">
+        <v>4811</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>470</v>
@@ -17773,16 +17792,16 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>4809</v>
+        <v>4807</v>
       </c>
       <c r="B29" s="45" t="s">
         <v>426</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>4808</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>4814</v>
+        <v>4806</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>4812</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>4606</v>
@@ -17815,13 +17834,13 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>4800</v>
+        <v>4798</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>498</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4804</v>
+        <v>4802</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4066</v>
@@ -17899,16 +17918,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>4802</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>4803</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>4807</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>4815</v>
+        <v>4800</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>4801</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>4813</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>4607</v>
@@ -17939,16 +17958,16 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>426</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>4811</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>4815</v>
+        <v>4809</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>4813</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>4609</v>
@@ -17985,7 +18004,7 @@
         <v>426</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4806</v>
+        <v>4804</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4068</v>
@@ -18020,7 +18039,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>25</v>
@@ -18257,50 +18276,50 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="57" t="s">
         <v>4079</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="45" t="s">
         <v>4796</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="57" t="s">
         <v>4080</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="45" t="s">
         <v>4796</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="M46" s="47" t="s">
+      <c r="M46" s="52" t="s">
         <v>4787</v>
       </c>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
       <c r="P46" s="16" t="s">
         <v>4117</v>
       </c>
@@ -18615,17 +18634,17 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B61" s="25" t="s">
         <v>4797</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>4798</v>
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="25" t="s">
         <v>4132</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>4799</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -18865,8 +18884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="H91" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18888,33 +18907,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>4724</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>1002</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="52" t="s">
         <v>4725</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="16" t="s">
         <v>4248</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="52" t="s">
         <v>4735</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="16" t="s">
         <v>4117</v>
       </c>
@@ -19650,11 +19669,11 @@
         <v>4067</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="M19" s="48" t="s">
+      <c r="M19" s="53" t="s">
         <v>4734</v>
       </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
       <c r="P19" s="17" t="s">
         <v>4045</v>
       </c>
@@ -20188,11 +20207,11 @@
         <v>4164</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="53" t="s">
         <v>4726</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="19" t="s">
         <v>4045</v>
       </c>
@@ -20315,11 +20334,11 @@
         <v>4252</v>
       </c>
       <c r="K38" s="1"/>
-      <c r="M38" s="48" t="s">
+      <c r="M38" s="53" t="s">
         <v>4733</v>
       </c>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
       <c r="P38" s="17" t="s">
         <v>4045</v>
       </c>
@@ -21150,11 +21169,11 @@
         <v>4190</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="G60" s="48" t="s">
+      <c r="G60" s="53" t="s">
         <v>4727</v>
       </c>
-      <c r="H60" s="49"/>
-      <c r="I60" s="50"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="55"/>
       <c r="J60" s="19" t="s">
         <v>4117</v>
       </c>
@@ -21391,11 +21410,11 @@
       <c r="K67" s="22" t="s">
         <v>4467</v>
       </c>
-      <c r="M67" s="48" t="s">
+      <c r="M67" s="53" t="s">
         <v>4732</v>
       </c>
-      <c r="N67" s="49"/>
-      <c r="O67" s="50"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="55"/>
       <c r="P67" s="17" t="s">
         <v>4045</v>
       </c>
@@ -21871,11 +21890,11 @@
         <v>4210</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="G80" s="48" t="s">
+      <c r="G80" s="53" t="s">
         <v>4728</v>
       </c>
-      <c r="H80" s="49"/>
-      <c r="I80" s="50"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
       <c r="J80" s="19" t="s">
         <v>4268</v>
       </c>
@@ -22347,11 +22366,11 @@
         <v>4140</v>
       </c>
       <c r="K92" s="1"/>
-      <c r="M92" s="48" t="s">
+      <c r="M92" s="53" t="s">
         <v>4731</v>
       </c>
-      <c r="N92" s="49"/>
-      <c r="O92" s="50"/>
+      <c r="N92" s="54"/>
+      <c r="O92" s="55"/>
       <c r="P92" s="18" t="s">
         <v>4568</v>
       </c>
@@ -22878,11 +22897,11 @@
         <v>4231</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="G107" s="48" t="s">
+      <c r="G107" s="53" t="s">
         <v>4729</v>
       </c>
-      <c r="H107" s="49"/>
-      <c r="I107" s="50"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="55"/>
       <c r="J107" s="18" t="s">
         <v>4559</v>
       </c>
@@ -23021,11 +23040,11 @@
       </c>
     </row>
     <row r="122" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G122" s="48" t="s">
+      <c r="G122" s="53" t="s">
         <v>4730</v>
       </c>
-      <c r="H122" s="49"/>
-      <c r="I122" s="50"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="55"/>
       <c r="J122" s="18" t="s">
         <v>4559</v>
       </c>
@@ -23210,6 +23229,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G60:I60"/>
     <mergeCell ref="G122:I122"/>
     <mergeCell ref="G107:I107"/>
     <mergeCell ref="M92:O92"/>
@@ -23217,11 +23241,6 @@
     <mergeCell ref="M38:O38"/>
     <mergeCell ref="M67:O67"/>
     <mergeCell ref="G80:I80"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G60:I60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23254,33 +23273,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>4736</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="52" t="s">
         <v>4774</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>3990</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="52" t="s">
         <v>4775</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="16" t="s">
         <v>4325</v>
       </c>
@@ -23897,22 +23916,22 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="52" t="s">
         <v>4737</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="52" t="s">
         <v>4776</v>
       </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
       <c r="P19" s="16" t="s">
         <v>4045</v>
       </c>
@@ -23961,11 +23980,11 @@
       <c r="E21" s="22" t="s">
         <v>4467</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="52" t="s">
         <v>4773</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
       <c r="J21" s="16" t="s">
         <v>4248</v>
       </c>
@@ -24728,11 +24747,11 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="52" t="s">
         <v>4738</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="16" t="s">
         <v>4321</v>
       </c>
@@ -25056,33 +25075,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>4739</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="16" t="s">
         <v>4045</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="52" t="s">
         <v>4742</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="16" t="s">
         <v>4341</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="52" t="s">
         <v>4749</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="16" t="s">
         <v>4045</v>
       </c>
@@ -26303,11 +26322,11 @@
         <v>4359</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="53" t="s">
         <v>4743</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
       <c r="J32" s="19" t="s">
         <v>4045</v>
       </c>
@@ -26991,11 +27010,11 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="52" t="s">
         <v>4740</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="16" t="s">
         <v>4340</v>
       </c>
@@ -27652,22 +27671,22 @@
         <v>4068</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="G78" s="48" t="s">
+      <c r="G78" s="53" t="s">
         <v>4744</v>
       </c>
-      <c r="H78" s="49"/>
-      <c r="I78" s="50"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
       <c r="J78" s="17" t="s">
         <v>4117</v>
       </c>
       <c r="K78" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="M78" s="47" t="s">
+      <c r="M78" s="52" t="s">
         <v>4748</v>
       </c>
-      <c r="N78" s="47"/>
-      <c r="O78" s="47"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
       <c r="P78" s="16" t="s">
         <v>4341</v>
       </c>
@@ -28457,11 +28476,11 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="53" t="s">
         <v>4741</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="50"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="55"/>
       <c r="D101" s="18" t="s">
         <v>4045</v>
       </c>
@@ -29411,11 +29430,11 @@
       <c r="K125" s="22" t="s">
         <v>4467</v>
       </c>
-      <c r="M125" s="48" t="s">
+      <c r="M125" s="53" t="s">
         <v>4747</v>
       </c>
-      <c r="N125" s="49"/>
-      <c r="O125" s="50"/>
+      <c r="N125" s="54"/>
+      <c r="O125" s="55"/>
       <c r="P125" s="18" t="s">
         <v>4117</v>
       </c>
@@ -29525,11 +29544,11 @@
       <c r="E129" s="1" t="s">
         <v>3947</v>
       </c>
-      <c r="G129" s="48" t="s">
+      <c r="G129" s="53" t="s">
         <v>4745</v>
       </c>
-      <c r="H129" s="49"/>
-      <c r="I129" s="50"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="55"/>
       <c r="J129" s="19" t="s">
         <v>4045</v>
       </c>
@@ -29905,11 +29924,11 @@
       <c r="Q139" s="1"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="53" t="s">
         <v>4746</v>
       </c>
-      <c r="B140" s="49"/>
-      <c r="C140" s="50"/>
+      <c r="B140" s="54"/>
+      <c r="C140" s="55"/>
       <c r="D140" s="18" t="s">
         <v>4676</v>
       </c>
@@ -30599,17 +30618,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="M78:O78"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="G129:I129"/>
     <mergeCell ref="M125:O125"/>
     <mergeCell ref="G78:I78"/>
     <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="M78:O78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10358" uniqueCount="4850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10363" uniqueCount="4853">
   <si>
     <t>varchar(30)</t>
   </si>
@@ -15929,6 +15929,18 @@
   </si>
   <si>
     <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16197,7 +16209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -16285,6 +16297,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16297,14 +16317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16616,7 +16629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="L55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q67" sqref="M67:Q67"/>
     </sheetView>
   </sheetViews>
@@ -16642,44 +16655,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>4665</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="59" t="s">
         <v>4667</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="59" t="s">
         <v>4760</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="15" t="s">
         <v>3994</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="59" t="s">
         <v>4759</v>
       </c>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
@@ -17252,11 +17265,11 @@
       <c r="Q13" s="21" t="s">
         <v>4412</v>
       </c>
-      <c r="S13" s="55" t="s">
+      <c r="S13" s="59" t="s">
         <v>4717</v>
       </c>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="15" t="s">
         <v>3995</v>
       </c>
@@ -17522,11 +17535,11 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="59" t="s">
         <v>4706</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="15" t="s">
         <v>3993</v>
       </c>
@@ -17591,11 +17604,11 @@
         <v>4001</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="M22" s="56" t="s">
+      <c r="M22" s="60" t="s">
         <v>4716</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="16" t="s">
         <v>3993</v>
       </c>
@@ -17718,11 +17731,11 @@
       <c r="E25" s="6" t="s">
         <v>3971</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="59" t="s">
         <v>4668</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="15" t="s">
         <v>3993</v>
       </c>
@@ -18904,16 +18917,16 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="56" t="s">
         <v>4027</v>
       </c>
       <c r="E52" s="44" t="s">
@@ -18947,16 +18960,16 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="56" t="s">
         <v>4028</v>
       </c>
       <c r="E53" s="44" t="s">
@@ -19957,14 +19970,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19976,8 +19989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q172"/>
   <sheetViews>
-    <sheetView topLeftCell="H133" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137:Q137"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19999,33 +20012,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>4669</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="59" t="s">
         <v>4670</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="15" t="s">
         <v>4196</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="59" t="s">
         <v>4680</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="15" t="s">
         <v>4065</v>
       </c>
@@ -21089,11 +21102,11 @@
       <c r="K27" s="21" t="s">
         <v>4412</v>
       </c>
-      <c r="M27" s="56" t="s">
+      <c r="M27" s="60" t="s">
         <v>4679</v>
       </c>
-      <c r="N27" s="57"/>
-      <c r="O27" s="58"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="62"/>
       <c r="P27" s="16" t="s">
         <v>3993</v>
       </c>
@@ -21665,11 +21678,11 @@
         <v>4122</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="G44" s="56" t="s">
+      <c r="G44" s="60" t="s">
         <v>4671</v>
       </c>
-      <c r="H44" s="57"/>
-      <c r="I44" s="58"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="18" t="s">
         <v>3993</v>
       </c>
@@ -23785,19 +23798,19 @@
       <c r="Q97" s="1"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="63" t="s">
         <v>4836</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="32" t="s">
         <v>4054</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="32" t="s">
         <v>3931</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -23815,19 +23828,21 @@
       <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>4171</v>
-      </c>
-      <c r="E99" s="2"/>
+      <c r="A99" s="21" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>4851</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>4852</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>4412</v>
+      </c>
       <c r="M99" s="1" t="s">
         <v>640</v>
       </c>
@@ -23844,18 +23859,18 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>4837</v>
+        <v>582</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>561</v>
+        <v>163</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>4172</v>
-      </c>
-      <c r="E100" s="1"/>
+        <v>4171</v>
+      </c>
+      <c r="E100" s="2"/>
       <c r="M100" s="1" t="s">
         <v>641</v>
       </c>
@@ -23872,16 +23887,16 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>164</v>
+        <v>561</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>4173</v>
+        <v>4172</v>
       </c>
       <c r="E101" s="1"/>
       <c r="M101" s="1" t="s">
@@ -23900,16 +23915,16 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>562</v>
+        <v>164</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="E102" s="1"/>
       <c r="M102" s="1" t="s">
@@ -23928,20 +23943,18 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>165</v>
+        <v>562</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>4175</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>3961</v>
-      </c>
+        <v>4174</v>
+      </c>
+      <c r="E103" s="1"/>
       <c r="G103" s="47" t="s">
         <v>4673</v>
       </c>
@@ -23967,16 +23980,16 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>3961</v>
@@ -24008,16 +24021,16 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>3961</v>
@@ -24051,18 +24064,20 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>4178</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>4177</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>3961</v>
+      </c>
       <c r="G106" s="30" t="s">
         <v>4530</v>
       </c>
@@ -24094,16 +24109,16 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>583</v>
+        <v>4843</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>4179</v>
+        <v>4178</v>
       </c>
       <c r="E107" s="1"/>
       <c r="G107" s="30" t="s">
@@ -24136,21 +24151,19 @@
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
-        <v>4844</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>4710</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>4080</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>4412</v>
-      </c>
+      <c r="A108" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="E108" s="1"/>
       <c r="G108" s="30" t="s">
         <v>4536</v>
       </c>
@@ -24183,14 +24196,14 @@
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="21" t="s">
-        <v>4845</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>4777</v>
+      <c r="A109" s="25" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="D109" s="21" t="s">
         <v>4080</v>
@@ -24229,13 +24242,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
       <c r="B110" s="21" t="s">
         <v>4776</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>4080</v>
@@ -24276,13 +24289,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>4780</v>
+        <v>4846</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>4781</v>
+        <v>4776</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>4782</v>
+        <v>4779</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>4080</v>
@@ -24323,13 +24336,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>4783</v>
+        <v>4780</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>4784</v>
+        <v>4781</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>4785</v>
+        <v>4782</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>4080</v>
@@ -24368,13 +24381,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>4786</v>
+        <v>4783</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>4776</v>
+        <v>4784</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>4080</v>
@@ -24415,13 +24428,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>4848</v>
+        <v>4786</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>434</v>
+        <v>4776</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>4849</v>
+        <v>4787</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>4080</v>
@@ -24444,6 +24457,21 @@
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="21" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>4849</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E115" s="21" t="s">
+        <v>4412</v>
+      </c>
       <c r="G115" s="1" t="s">
         <v>598</v>
       </c>
@@ -25506,6 +25534,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25535,33 +25564,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>4681</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="59" t="s">
         <v>4719</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>3938</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="59" t="s">
         <v>4720</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="15" t="s">
         <v>4273</v>
       </c>
@@ -26460,11 +26489,11 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M25" s="55" t="s">
+      <c r="M25" s="59" t="s">
         <v>4721</v>
       </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="15" t="s">
         <v>3993</v>
       </c>
@@ -26567,11 +26596,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="59" t="s">
         <v>4682</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="15" t="s">
         <v>3993</v>
       </c>
@@ -26693,11 +26722,11 @@
       <c r="E36" s="31" t="s">
         <v>3885</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="59" t="s">
         <v>4718</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
       <c r="J36" s="15" t="s">
         <v>4196</v>
       </c>
@@ -27973,12 +28002,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="G36:I36"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27989,7 +28018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="M171" sqref="M171:Q171"/>
     </sheetView>
   </sheetViews>
@@ -28012,33 +28041,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>4684</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="59" t="s">
         <v>4687</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="15" t="s">
         <v>4289</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="59" t="s">
         <v>4694</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="15" t="s">
         <v>3993</v>
       </c>
@@ -29578,11 +29607,11 @@
       <c r="E40" s="1" t="s">
         <v>3891</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="60" t="s">
         <v>4688</v>
       </c>
-      <c r="H40" s="57"/>
-      <c r="I40" s="58"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="18" t="s">
         <v>3993</v>
       </c>
@@ -30114,11 +30143,11 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="59" t="s">
         <v>4685</v>
       </c>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="15" t="s">
         <v>4288</v>
       </c>
@@ -30848,11 +30877,11 @@
       <c r="K78" s="1" t="s">
         <v>3913</v>
       </c>
-      <c r="M78" s="55" t="s">
+      <c r="M78" s="59" t="s">
         <v>4693</v>
       </c>
-      <c r="N78" s="55"/>
-      <c r="O78" s="55"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="59"/>
       <c r="P78" s="15" t="s">
         <v>4289</v>
       </c>
@@ -31623,11 +31652,11 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="56" t="s">
+      <c r="A101" s="60" t="s">
         <v>4686</v>
       </c>
-      <c r="B101" s="57"/>
-      <c r="C101" s="58"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="62"/>
       <c r="D101" s="17" t="s">
         <v>3993</v>
       </c>
@@ -32873,11 +32902,11 @@
         <v>4385</v>
       </c>
       <c r="K132" s="1"/>
-      <c r="M132" s="56" t="s">
+      <c r="M132" s="60" t="s">
         <v>4692</v>
       </c>
-      <c r="N132" s="57"/>
-      <c r="O132" s="58"/>
+      <c r="N132" s="61"/>
+      <c r="O132" s="62"/>
       <c r="P132" s="17" t="s">
         <v>4065</v>
       </c>
@@ -33374,11 +33403,11 @@
       <c r="Q145" s="1"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="56" t="s">
+      <c r="A146" s="60" t="s">
         <v>4691</v>
       </c>
-      <c r="B146" s="57"/>
-      <c r="C146" s="58"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="62"/>
       <c r="D146" s="17" t="s">
         <v>4621</v>
       </c>
@@ -34603,15 +34632,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="A101:C101"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="M78:O78"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="M132:O132"/>
-    <mergeCell ref="A101:C101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34666,31 +34695,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="57" t="s">
         <v>4771</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="57" t="s">
         <v>4763</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="57" t="s">
         <v>4764</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="57" t="s">
         <v>4765</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="57" t="s">
         <v>4766</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="57" t="s">
         <v>4767</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="57" t="s">
         <v>4768</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="57" t="s">
         <v>4769</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="58" t="s">
         <v>4772</v>
       </c>
     </row>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -15392,10 +15392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rank 为mysql关键字，改成 job_level(20200911)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP_Organization组织架构表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15452,10 +15448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JOB_LEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CodeTableOID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15941,6 +15933,14 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_LEVEL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank 为mysql关键字，改成 JOB_LEVEL_CODE(20200911)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16305,6 +16305,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16317,7 +16318,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16629,8 +16629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q67" sqref="M67:Q67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16655,44 +16655,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>4665</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="60" t="s">
         <v>4667</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>4760</v>
-      </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="M1" s="60" t="s">
+        <v>4758</v>
+      </c>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="15" t="s">
         <v>3994</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="S1" s="59" t="s">
-        <v>4759</v>
-      </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="S1" s="60" t="s">
+        <v>4757</v>
+      </c>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
@@ -16790,7 +16790,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>434</v>
@@ -17029,7 +17029,7 @@
         <v>425</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4774</v>
+        <v>4772</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -17124,13 +17124,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>4080</v>
@@ -17139,13 +17139,13 @@
         <v>4412</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>4080</v>
@@ -17174,13 +17174,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>4080</v>
@@ -17189,13 +17189,13 @@
         <v>4412</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>4080</v>
@@ -17221,13 +17221,13 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>4080</v>
@@ -17236,13 +17236,13 @@
         <v>4412</v>
       </c>
       <c r="G13" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>4080</v>
@@ -17251,13 +17251,13 @@
         <v>4412</v>
       </c>
       <c r="M13" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P13" s="21" t="s">
         <v>4080</v>
@@ -17265,11 +17265,11 @@
       <c r="Q13" s="21" t="s">
         <v>4412</v>
       </c>
-      <c r="S13" s="59" t="s">
-        <v>4717</v>
-      </c>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
+      <c r="S13" s="60" t="s">
+        <v>4716</v>
+      </c>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="15" t="s">
         <v>3995</v>
       </c>
@@ -17279,13 +17279,13 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>4080</v>
@@ -17294,13 +17294,13 @@
         <v>4412</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>4080</v>
@@ -17309,13 +17309,13 @@
         <v>4412</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P14" s="21" t="s">
         <v>4080</v>
@@ -17339,13 +17339,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>4080</v>
@@ -17354,13 +17354,13 @@
         <v>4412</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>4080</v>
@@ -17369,13 +17369,13 @@
         <v>4412</v>
       </c>
       <c r="M15" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>4080</v>
@@ -17399,13 +17399,13 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>4080</v>
@@ -17414,13 +17414,13 @@
         <v>4412</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>4080</v>
@@ -17429,13 +17429,13 @@
         <v>4412</v>
       </c>
       <c r="M16" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O16" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N16" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O16" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>4080</v>
@@ -17459,13 +17459,13 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M17" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>4080</v>
@@ -17489,13 +17489,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="M18" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N18" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>4080</v>
@@ -17516,7 +17516,7 @@
         <v>4070</v>
       </c>
       <c r="W18" s="13" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -17535,11 +17535,11 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="60" t="s">
         <v>4706</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="15" t="s">
         <v>3993</v>
       </c>
@@ -17604,11 +17604,11 @@
         <v>4001</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="M22" s="60" t="s">
-        <v>4716</v>
-      </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
+      <c r="M22" s="61" t="s">
+        <v>4715</v>
+      </c>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
       <c r="P22" s="16" t="s">
         <v>3993</v>
       </c>
@@ -17717,7 +17717,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
@@ -17731,11 +17731,11 @@
       <c r="E25" s="6" t="s">
         <v>3971</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="60" t="s">
         <v>4668</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="15" t="s">
         <v>3993</v>
       </c>
@@ -17756,13 +17756,13 @@
       </c>
       <c r="Q25" s="1"/>
       <c r="S25" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="U25" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="T25" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="U25" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="V25" s="21" t="s">
         <v>4080</v>
@@ -17814,13 +17814,13 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="S26" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="U26" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="V26" s="21" t="s">
         <v>4080</v>
@@ -17870,13 +17870,13 @@
       </c>
       <c r="Q27" s="1"/>
       <c r="S27" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="U27" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="T27" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="U27" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="V27" s="21" t="s">
         <v>4080</v>
@@ -17928,13 +17928,13 @@
       </c>
       <c r="Q28" s="1"/>
       <c r="S28" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="U28" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="T28" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="U28" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="V28" s="21" t="s">
         <v>4080</v>
@@ -17951,7 +17951,7 @@
         <v>446</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>4733</v>
+        <v>4731</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4008</v>
@@ -17988,13 +17988,13 @@
         <v>4412</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="V29" s="21" t="s">
         <v>4080</v>
@@ -18044,13 +18044,13 @@
       </c>
       <c r="Q30" s="1"/>
       <c r="S30" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="T30" s="21" t="s">
         <v>434</v>
       </c>
       <c r="U30" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="V30" s="21" t="s">
         <v>4080</v>
@@ -18233,17 +18233,17 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B35" s="51" t="s">
         <v>4744</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="C35" s="51" t="s">
         <v>4746</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>4748</v>
       </c>
       <c r="D35" s="52"/>
       <c r="E35" s="52" t="s">
-        <v>4756</v>
+        <v>4754</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>4548</v>
@@ -18276,16 +18276,16 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>4752</v>
+        <v>4750</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>426</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>4751</v>
+        <v>4749</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>4757</v>
+        <v>4755</v>
       </c>
       <c r="G36" s="23" t="s">
         <v>4549</v>
@@ -18316,13 +18316,13 @@
     </row>
     <row r="37" spans="1:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>4743</v>
+        <v>4741</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>498</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4747</v>
+        <v>4745</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4014</v>
@@ -18398,16 +18398,16 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>4745</v>
+        <v>4743</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>4746</v>
+        <v>4744</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>4750</v>
+        <v>4748</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>4758</v>
+        <v>4756</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>469</v>
@@ -18438,16 +18438,16 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="44" t="s">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="B40" s="44" t="s">
         <v>426</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>4754</v>
+        <v>4752</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>4758</v>
+        <v>4756</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>470</v>
@@ -18484,7 +18484,7 @@
         <v>426</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4749</v>
+        <v>4747</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4016</v>
@@ -18521,7 +18521,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>4755</v>
+        <v>4753</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
@@ -18594,13 +18594,13 @@
         <v>3983</v>
       </c>
       <c r="M43" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O43" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>4080</v>
@@ -18617,7 +18617,7 @@
         <v>4712</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4734</v>
+        <v>4732</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>4019</v>
@@ -18637,13 +18637,13 @@
         <v>4412</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P44" s="21" t="s">
         <v>4080</v>
@@ -18660,7 +18660,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>4735</v>
+        <v>4733</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>4020</v>
@@ -18680,13 +18680,13 @@
         <v>4412</v>
       </c>
       <c r="M45" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O45" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N45" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>4080</v>
@@ -18703,7 +18703,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4736</v>
+        <v>4734</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>4021</v>
@@ -18723,13 +18723,13 @@
         <v>4412</v>
       </c>
       <c r="M46" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O46" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N46" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P46" s="21" t="s">
         <v>4080</v>
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>4022</v>
@@ -18768,13 +18768,13 @@
       </c>
       <c r="K47" s="1"/>
       <c r="M47" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>4080</v>
@@ -18785,7 +18785,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>4730</v>
+        <v>4851</v>
       </c>
       <c r="B48" s="44" t="s">
         <v>0</v>
@@ -18797,7 +18797,7 @@
         <v>4023</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>4715</v>
+        <v>4852</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>472</v>
@@ -18813,13 +18813,13 @@
       </c>
       <c r="K48" s="1"/>
       <c r="M48" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P48" s="21" t="s">
         <v>4080</v>
@@ -18836,7 +18836,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4738</v>
+        <v>4736</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4024</v>
@@ -18864,7 +18864,7 @@
         <v>32</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4739</v>
+        <v>4737</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4025</v>
@@ -18894,20 +18894,20 @@
         <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>4740</v>
+        <v>4738</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4026</v>
       </c>
       <c r="E51" s="1"/>
       <c r="G51" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J51" s="21" t="s">
         <v>4080</v>
@@ -18930,16 +18930,16 @@
         <v>4027</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>4741</v>
+        <v>4739</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I52" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J52" s="21" t="s">
         <v>4080</v>
@@ -18948,7 +18948,7 @@
         <v>4412</v>
       </c>
       <c r="M52" s="46" t="s">
-        <v>4732</v>
+        <v>4730</v>
       </c>
       <c r="N52" s="46"/>
       <c r="O52" s="46"/>
@@ -18973,16 +18973,16 @@
         <v>4028</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>4741</v>
+        <v>4739</v>
       </c>
       <c r="G53" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J53" s="21" t="s">
         <v>4080</v>
@@ -19021,13 +19021,13 @@
         <v>4412</v>
       </c>
       <c r="G54" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I54" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J54" s="21" t="s">
         <v>4080</v>
@@ -19049,13 +19049,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>4080</v>
@@ -19064,13 +19064,13 @@
         <v>4412</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J55" s="21" t="s">
         <v>4080</v>
@@ -19094,13 +19094,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D56" s="21" t="s">
         <v>4080</v>
@@ -19109,13 +19109,13 @@
         <v>4412</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J56" s="21" t="s">
         <v>4080</v>
@@ -19139,13 +19139,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>4080</v>
@@ -19169,13 +19169,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D58" s="21" t="s">
         <v>4080</v>
@@ -19201,13 +19201,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>4080</v>
@@ -19233,13 +19233,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>4080</v>
@@ -19286,13 +19286,13 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="M62" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N62" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O62" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N62" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O62" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P62" s="21" t="s">
         <v>4080</v>
@@ -19303,7 +19303,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="43" t="s">
-        <v>4724</v>
+        <v>4723</v>
       </c>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -19316,13 +19316,13 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="M63" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N63" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P63" s="21" t="s">
         <v>4080</v>
@@ -19346,13 +19346,13 @@
       </c>
       <c r="E64" s="1"/>
       <c r="M64" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N64" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O64" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N64" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O64" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P64" s="21" t="s">
         <v>4080</v>
@@ -19363,7 +19363,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>2</v>
@@ -19381,13 +19381,13 @@
       <c r="H65" s="48"/>
       <c r="I65" s="49"/>
       <c r="M65" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N65" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O65" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N65" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O65" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P65" s="21" t="s">
         <v>4080</v>
@@ -19398,7 +19398,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="30" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>0</v>
@@ -19416,13 +19416,13 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="M66" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N66" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O66" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P66" s="21" t="s">
         <v>4080</v>
@@ -19451,13 +19451,13 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="M67" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N67" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O67" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P67" s="21" t="s">
         <v>4080</v>
@@ -19524,13 +19524,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>4080</v>
@@ -19541,13 +19541,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>4080</v>
@@ -19558,13 +19558,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>4080</v>
@@ -19575,13 +19575,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>4080</v>
@@ -19592,13 +19592,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>4080</v>
@@ -19609,13 +19609,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>4080</v>
@@ -19639,17 +19639,17 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>4761</v>
+        <v>4759</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>4742</v>
+        <v>4740</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24" t="s">
         <v>4080</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>4762</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -19868,13 +19868,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C96" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D96" s="21" t="s">
         <v>4080</v>
@@ -19885,13 +19885,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D97" s="21" t="s">
         <v>4080</v>
@@ -19902,13 +19902,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D98" s="21" t="s">
         <v>4080</v>
@@ -19919,13 +19919,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>4080</v>
@@ -19936,13 +19936,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>4080</v>
@@ -19953,13 +19953,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B101" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D101" s="21" t="s">
         <v>4080</v>
@@ -19970,14 +19970,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="S1:U1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19989,7 +19989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
@@ -20012,33 +20012,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>4669</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="60" t="s">
         <v>4670</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="15" t="s">
         <v>4196</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="60" t="s">
         <v>4680</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="15" t="s">
         <v>4065</v>
       </c>
@@ -20169,7 +20169,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4773</v>
+        <v>4771</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -20479,7 +20479,7 @@
         <v>511</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>83</v>
@@ -20520,7 +20520,7 @@
         <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4789</v>
+        <v>4787</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>85</v>
@@ -20717,13 +20717,13 @@
       </c>
       <c r="K17" s="1"/>
       <c r="M17" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>4080</v>
@@ -20762,13 +20762,13 @@
       </c>
       <c r="K18" s="1"/>
       <c r="M18" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>4080</v>
@@ -20805,13 +20805,13 @@
       </c>
       <c r="K19" s="1"/>
       <c r="M19" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O19" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P19" s="21" t="s">
         <v>4080</v>
@@ -20848,13 +20848,13 @@
       </c>
       <c r="K20" s="1"/>
       <c r="M20" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O20" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P20" s="21" t="s">
         <v>4080</v>
@@ -20891,13 +20891,13 @@
       </c>
       <c r="K21" s="1"/>
       <c r="M21" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P21" s="21" t="s">
         <v>4080</v>
@@ -20908,7 +20908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4790</v>
+        <v>4788</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -20936,13 +20936,13 @@
       </c>
       <c r="K22" s="1"/>
       <c r="M22" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P22" s="21" t="s">
         <v>4080</v>
@@ -20985,7 +20985,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>4791</v>
+        <v>4789</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
@@ -21045,7 +21045,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>4793</v>
+        <v>4791</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>528</v>
@@ -21102,11 +21102,11 @@
       <c r="K27" s="21" t="s">
         <v>4412</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="61" t="s">
         <v>4679</v>
       </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
       <c r="P27" s="16" t="s">
         <v>3993</v>
       </c>
@@ -21127,13 +21127,13 @@
       </c>
       <c r="E28" s="1"/>
       <c r="G28" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>4080</v>
@@ -21159,7 +21159,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>4794</v>
+        <v>4792</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>527</v>
@@ -21172,13 +21172,13 @@
       </c>
       <c r="E29" s="1"/>
       <c r="G29" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>4080</v>
@@ -21213,13 +21213,13 @@
       </c>
       <c r="E30" s="1"/>
       <c r="G30" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>4080</v>
@@ -21243,7 +21243,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>4795</v>
+        <v>4793</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>84</v>
@@ -21256,13 +21256,13 @@
       </c>
       <c r="E31" s="1"/>
       <c r="G31" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I31" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>4080</v>
@@ -21299,13 +21299,13 @@
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>4080</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>4796</v>
+        <v>4794</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
@@ -21342,13 +21342,13 @@
       </c>
       <c r="E33" s="1"/>
       <c r="G33" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J33" s="21" t="s">
         <v>4080</v>
@@ -21428,10 +21428,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>4797</v>
+        <v>4795</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4798</v>
+        <v>4796</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>106</v>
@@ -21488,7 +21488,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>4799</v>
+        <v>4797</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>42</v>
@@ -21516,7 +21516,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>4800</v>
+        <v>4798</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
@@ -21576,7 +21576,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>4801</v>
+        <v>4799</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
@@ -21606,7 +21606,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>4802</v>
+        <v>4800</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
@@ -21636,10 +21636,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>4803</v>
+        <v>4801</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4798</v>
+        <v>4796</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>112</v>
@@ -21649,13 +21649,13 @@
       </c>
       <c r="E43" s="1"/>
       <c r="M43" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N43" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O43" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N43" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O43" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P43" s="21" t="s">
         <v>4080</v>
@@ -21666,10 +21666,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>4804</v>
+        <v>4802</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4798</v>
+        <v>4796</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>113</v>
@@ -21678,11 +21678,11 @@
         <v>4122</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="61" t="s">
         <v>4671</v>
       </c>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="63"/>
       <c r="J44" s="18" t="s">
         <v>3993</v>
       </c>
@@ -21690,13 +21690,13 @@
         <v>3966</v>
       </c>
       <c r="M44" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P44" s="21" t="s">
         <v>4080</v>
@@ -21707,7 +21707,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>4805</v>
+        <v>4803</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
@@ -21735,13 +21735,13 @@
         <v>4412</v>
       </c>
       <c r="M45" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O45" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N45" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O45" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P45" s="21" t="s">
         <v>4080</v>
@@ -21752,7 +21752,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>4806</v>
+        <v>4804</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
@@ -21776,13 +21776,13 @@
       </c>
       <c r="K46" s="1"/>
       <c r="M46" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N46" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O46" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N46" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P46" s="21" t="s">
         <v>4080</v>
@@ -21793,7 +21793,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>4807</v>
+        <v>4805</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>42</v>
@@ -21819,13 +21819,13 @@
       </c>
       <c r="K47" s="1"/>
       <c r="M47" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>4080</v>
@@ -21862,13 +21862,13 @@
       </c>
       <c r="K48" s="1"/>
       <c r="M48" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P48" s="21" t="s">
         <v>4080</v>
@@ -21935,7 +21935,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>4808</v>
+        <v>4806</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>42</v>
@@ -21963,7 +21963,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>4809</v>
+        <v>4807</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>16</v>
@@ -22000,7 +22000,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
@@ -22087,7 +22087,7 @@
         <v>568</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4811</v>
+        <v>4809</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>123</v>
@@ -22127,7 +22127,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>16</v>
@@ -22172,7 +22172,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>16</v>
@@ -22217,7 +22217,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>4814</v>
+        <v>4812</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>16</v>
@@ -22346,7 +22346,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>4815</v>
+        <v>4813</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>32</v>
@@ -22484,13 +22484,13 @@
       </c>
       <c r="E64" s="1"/>
       <c r="G64" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I64" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I64" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J64" s="21" t="s">
         <v>4080</v>
@@ -22517,7 +22517,7 @@
         <v>574</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4847</v>
+        <v>4845</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>133</v>
@@ -22527,13 +22527,13 @@
       </c>
       <c r="E65" s="1"/>
       <c r="G65" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I65" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J65" s="21" t="s">
         <v>4080</v>
@@ -22570,13 +22570,13 @@
       </c>
       <c r="E66" s="1"/>
       <c r="G66" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H66" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I66" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I66" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J66" s="21" t="s">
         <v>4080</v>
@@ -22600,7 +22600,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>4816</v>
+        <v>4814</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>42</v>
@@ -22613,13 +22613,13 @@
       </c>
       <c r="E67" s="1"/>
       <c r="G67" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H67" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I67" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I67" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J67" s="21" t="s">
         <v>4080</v>
@@ -22643,7 +22643,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>4817</v>
+        <v>4815</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>42</v>
@@ -22658,13 +22658,13 @@
         <v>3958</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I68" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J68" s="21" t="s">
         <v>4080</v>
@@ -22690,7 +22690,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>4818</v>
+        <v>4816</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>16</v>
@@ -22703,13 +22703,13 @@
       </c>
       <c r="E69" s="1"/>
       <c r="G69" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H69" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I69" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J69" s="21" t="s">
         <v>4080</v>
@@ -22735,7 +22735,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>4819</v>
+        <v>4817</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>42</v>
@@ -22793,7 +22793,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>4820</v>
+        <v>4818</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>42</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>4821</v>
+        <v>4819</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>42</v>
@@ -22877,7 +22877,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>4822</v>
+        <v>4820</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>42</v>
@@ -22946,13 +22946,13 @@
         <v>4412</v>
       </c>
       <c r="M76" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N76" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O76" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N76" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O76" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P76" s="21" t="s">
         <v>4080</v>
@@ -22963,7 +22963,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>4823</v>
+        <v>4821</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>42</v>
@@ -22989,13 +22989,13 @@
       </c>
       <c r="K77" s="31"/>
       <c r="M77" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O77" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P77" s="21" t="s">
         <v>4080</v>
@@ -23032,13 +23032,13 @@
       </c>
       <c r="K78" s="1"/>
       <c r="M78" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N78" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O78" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N78" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O78" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P78" s="21" t="s">
         <v>4080</v>
@@ -23075,13 +23075,13 @@
       </c>
       <c r="K79" s="1"/>
       <c r="M79" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N79" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O79" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N79" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O79" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P79" s="21" t="s">
         <v>4080</v>
@@ -23092,7 +23092,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>4824</v>
+        <v>4822</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>42</v>
@@ -23118,13 +23118,13 @@
       </c>
       <c r="K80" s="1"/>
       <c r="M80" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N80" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O80" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P80" s="21" t="s">
         <v>4080</v>
@@ -23163,13 +23163,13 @@
         <v>3967</v>
       </c>
       <c r="M81" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N81" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O81" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P81" s="21" t="s">
         <v>4080</v>
@@ -23180,7 +23180,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>4825</v>
+        <v>4823</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>42</v>
@@ -23210,7 +23210,7 @@
     </row>
     <row r="83" spans="1:17" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>4826</v>
+        <v>4824</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>25</v>
@@ -23238,7 +23238,7 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>4827</v>
+        <v>4825</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>25</v>
@@ -23266,7 +23266,7 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>4828</v>
+        <v>4826</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>2</v>
@@ -23294,7 +23294,7 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>4829</v>
+        <v>4827</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>2</v>
@@ -23331,7 +23331,7 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
@@ -23376,7 +23376,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>4831</v>
+        <v>4829</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>6</v>
@@ -23456,7 +23456,7 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>4832</v>
+        <v>4830</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>6</v>
@@ -23516,13 +23516,13 @@
         <v>3960</v>
       </c>
       <c r="G91" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I91" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H91" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I91" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J91" s="21" t="s">
         <v>4080</v>
@@ -23559,13 +23559,13 @@
       </c>
       <c r="E92" s="1"/>
       <c r="G92" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H92" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I92" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J92" s="21" t="s">
         <v>4080</v>
@@ -23591,7 +23591,7 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>4833</v>
+        <v>4831</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>25</v>
@@ -23604,13 +23604,13 @@
       </c>
       <c r="E93" s="1"/>
       <c r="G93" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I93" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H93" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I93" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J93" s="21" t="s">
         <v>4080</v>
@@ -23649,13 +23649,13 @@
       </c>
       <c r="E94" s="1"/>
       <c r="G94" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H94" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I94" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H94" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I94" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J94" s="21" t="s">
         <v>4080</v>
@@ -23681,7 +23681,7 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>4834</v>
+        <v>4832</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>25</v>
@@ -23694,13 +23694,13 @@
       </c>
       <c r="E95" s="1"/>
       <c r="G95" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H95" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I95" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J95" s="21" t="s">
         <v>4080</v>
@@ -23726,7 +23726,7 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>4835</v>
+        <v>4833</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>42</v>
@@ -23739,13 +23739,13 @@
       </c>
       <c r="E96" s="1"/>
       <c r="G96" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H96" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I96" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J96" s="21" t="s">
         <v>4080</v>
@@ -23798,8 +23798,8 @@
       <c r="Q97" s="1"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="63" t="s">
-        <v>4836</v>
+      <c r="A98" s="59" t="s">
+        <v>4834</v>
       </c>
       <c r="B98" s="32" t="s">
         <v>0</v>
@@ -23829,16 +23829,16 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>4850</v>
+        <v>4848</v>
       </c>
       <c r="B99" s="21" t="s">
         <v>4713</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>4852</v>
+        <v>4850</v>
       </c>
       <c r="E99" s="21" t="s">
         <v>4412</v>
@@ -23887,7 +23887,7 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>4837</v>
+        <v>4835</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>16</v>
@@ -23915,7 +23915,7 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>4838</v>
+        <v>4836</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>16</v>
@@ -23943,7 +23943,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>4839</v>
+        <v>4837</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>6</v>
@@ -23980,7 +23980,7 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
@@ -24021,7 +24021,7 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>4841</v>
+        <v>4839</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
@@ -24064,7 +24064,7 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>0</v>
@@ -24109,7 +24109,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>4843</v>
+        <v>4841</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>25</v>
@@ -24180,13 +24180,13 @@
         <v>3885</v>
       </c>
       <c r="M108" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N108" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O108" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N108" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O108" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P108" s="21" t="s">
         <v>4080</v>
@@ -24197,7 +24197,7 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>4710</v>
@@ -24225,13 +24225,13 @@
       </c>
       <c r="K109" s="21"/>
       <c r="M109" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N109" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O109" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P109" s="21" t="s">
         <v>4080</v>
@@ -24242,13 +24242,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>4777</v>
+        <v>4775</v>
       </c>
       <c r="D110" s="21" t="s">
         <v>4080</v>
@@ -24272,13 +24272,13 @@
         <v>3931</v>
       </c>
       <c r="M110" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N110" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O110" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N110" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O110" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P110" s="21" t="s">
         <v>4080</v>
@@ -24289,13 +24289,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>4846</v>
+        <v>4844</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D111" s="21" t="s">
         <v>4080</v>
@@ -24319,13 +24319,13 @@
         <v>3886</v>
       </c>
       <c r="M111" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N111" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O111" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N111" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O111" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P111" s="21" t="s">
         <v>4080</v>
@@ -24336,13 +24336,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C112" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>4080</v>
@@ -24364,13 +24364,13 @@
       </c>
       <c r="K112" s="20"/>
       <c r="M112" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N112" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O112" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P112" s="21" t="s">
         <v>4080</v>
@@ -24381,13 +24381,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C113" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>4080</v>
@@ -24411,13 +24411,13 @@
         <v>3885</v>
       </c>
       <c r="M113" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N113" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O113" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P113" s="21" t="s">
         <v>4080</v>
@@ -24428,13 +24428,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>4080</v>
@@ -24458,13 +24458,13 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B115" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>4080</v>
@@ -24724,13 +24724,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G126" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H126" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I126" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H126" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I126" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J126" s="21" t="s">
         <v>4080</v>
@@ -24756,13 +24756,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G127" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H127" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I127" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J127" s="21" t="s">
         <v>4080</v>
@@ -24786,13 +24786,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G128" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H128" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I128" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H128" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I128" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J128" s="21" t="s">
         <v>4080</v>
@@ -24816,13 +24816,13 @@
     </row>
     <row r="129" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G129" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H129" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I129" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H129" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I129" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J129" s="21" t="s">
         <v>4080</v>
@@ -24846,13 +24846,13 @@
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G130" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H130" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I130" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J130" s="21" t="s">
         <v>4080</v>
@@ -24876,13 +24876,13 @@
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G131" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H131" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J131" s="21" t="s">
         <v>4080</v>
@@ -24908,13 +24908,13 @@
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.2">
       <c r="M132" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N132" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O132" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N132" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O132" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P132" s="21" t="s">
         <v>4080</v>
@@ -24925,13 +24925,13 @@
     </row>
     <row r="133" spans="7:17" x14ac:dyDescent="0.2">
       <c r="M133" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N133" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O133" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P133" s="21" t="s">
         <v>4080</v>
@@ -24942,13 +24942,13 @@
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.2">
       <c r="M134" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N134" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O134" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N134" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O134" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P134" s="21" t="s">
         <v>4080</v>
@@ -24959,13 +24959,13 @@
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.2">
       <c r="M135" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N135" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O135" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N135" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O135" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P135" s="21" t="s">
         <v>4080</v>
@@ -24987,13 +24987,13 @@
         <v>947</v>
       </c>
       <c r="M136" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N136" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O136" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P136" s="21" t="s">
         <v>4080</v>
@@ -25017,13 +25017,13 @@
         <v>4412</v>
       </c>
       <c r="M137" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N137" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O137" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P137" s="21" t="s">
         <v>4080</v>
@@ -25134,13 +25134,13 @@
     </row>
     <row r="144" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G144" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I144" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H144" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I144" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J144" s="21" t="s">
         <v>4080</v>
@@ -25151,13 +25151,13 @@
     </row>
     <row r="145" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G145" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I145" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J145" s="21" t="s">
         <v>4080</v>
@@ -25168,13 +25168,13 @@
     </row>
     <row r="146" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G146" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I146" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H146" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I146" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J146" s="21" t="s">
         <v>4080</v>
@@ -25185,13 +25185,13 @@
     </row>
     <row r="147" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G147" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H147" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I147" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H147" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I147" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J147" s="21" t="s">
         <v>4080</v>
@@ -25202,13 +25202,13 @@
     </row>
     <row r="148" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G148" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J148" s="21" t="s">
         <v>4080</v>
@@ -25219,13 +25219,13 @@
     </row>
     <row r="149" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G149" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H149" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J149" s="21" t="s">
         <v>4080</v>
@@ -25424,13 +25424,13 @@
     </row>
     <row r="167" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G167" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H167" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I167" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H167" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I167" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J167" s="21" t="s">
         <v>4080</v>
@@ -25441,13 +25441,13 @@
     </row>
     <row r="168" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G168" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H168" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I168" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J168" s="21" t="s">
         <v>4080</v>
@@ -25458,13 +25458,13 @@
     </row>
     <row r="169" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G169" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H169" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I169" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H169" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I169" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J169" s="21" t="s">
         <v>4080</v>
@@ -25475,13 +25475,13 @@
     </row>
     <row r="170" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G170" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H170" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I170" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H170" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I170" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J170" s="21" t="s">
         <v>4080</v>
@@ -25492,13 +25492,13 @@
     </row>
     <row r="171" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G171" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H171" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I171" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J171" s="21" t="s">
         <v>4080</v>
@@ -25509,13 +25509,13 @@
     </row>
     <row r="172" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G172" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H172" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I172" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J172" s="21" t="s">
         <v>4080</v>
@@ -25564,33 +25564,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>4681</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="G1" s="59" t="s">
-        <v>4719</v>
-      </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="G1" s="60" t="s">
+        <v>4718</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>3938</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>4720</v>
-      </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="M1" s="60" t="s">
+        <v>4719</v>
+      </c>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="15" t="s">
         <v>4273</v>
       </c>
@@ -26175,13 +26175,13 @@
         <v>3933</v>
       </c>
       <c r="M15" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>4080</v>
@@ -26192,13 +26192,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>4080</v>
@@ -26219,13 +26219,13 @@
         <v>4018</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>4080</v>
@@ -26236,13 +26236,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>4080</v>
@@ -26266,13 +26266,13 @@
         <v>4412</v>
       </c>
       <c r="M17" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N17" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P17" s="21" t="s">
         <v>4080</v>
@@ -26283,13 +26283,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>4080</v>
@@ -26298,13 +26298,13 @@
         <v>4412</v>
       </c>
       <c r="G18" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>4080</v>
@@ -26313,13 +26313,13 @@
         <v>4412</v>
       </c>
       <c r="M18" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O18" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P18" s="21" t="s">
         <v>4080</v>
@@ -26330,13 +26330,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>4080</v>
@@ -26345,13 +26345,13 @@
         <v>4412</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>4080</v>
@@ -26360,13 +26360,13 @@
         <v>4412</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P19" s="21" t="s">
         <v>4080</v>
@@ -26377,13 +26377,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>4080</v>
@@ -26392,13 +26392,13 @@
         <v>4412</v>
       </c>
       <c r="G20" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>4080</v>
@@ -26407,13 +26407,13 @@
         <v>4412</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N20" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P20" s="21" t="s">
         <v>4080</v>
@@ -26424,13 +26424,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>4080</v>
@@ -26439,13 +26439,13 @@
         <v>4412</v>
       </c>
       <c r="G21" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>4080</v>
@@ -26456,13 +26456,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G22" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>4080</v>
@@ -26473,13 +26473,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G23" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>4080</v>
@@ -26489,11 +26489,11 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M25" s="59" t="s">
-        <v>4721</v>
-      </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
+      <c r="M25" s="60" t="s">
+        <v>4720</v>
+      </c>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
       <c r="P25" s="15" t="s">
         <v>3993</v>
       </c>
@@ -26596,11 +26596,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="60" t="s">
         <v>4682</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="15" t="s">
         <v>3993</v>
       </c>
@@ -26722,11 +26722,11 @@
       <c r="E36" s="31" t="s">
         <v>3885</v>
       </c>
-      <c r="G36" s="59" t="s">
-        <v>4718</v>
-      </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
+      <c r="G36" s="60" t="s">
+        <v>4717</v>
+      </c>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="15" t="s">
         <v>4196</v>
       </c>
@@ -27265,13 +27265,13 @@
       </c>
       <c r="K49" s="1"/>
       <c r="M49" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O49" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N49" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P49" s="21" t="s">
         <v>4080</v>
@@ -27282,13 +27282,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>4080</v>
@@ -27310,13 +27310,13 @@
       </c>
       <c r="K50" s="1"/>
       <c r="M50" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P50" s="21" t="s">
         <v>4080</v>
@@ -27327,13 +27327,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>4080</v>
@@ -27355,13 +27355,13 @@
       </c>
       <c r="K51" s="1"/>
       <c r="M51" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N51" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O51" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N51" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P51" s="21" t="s">
         <v>4080</v>
@@ -27372,13 +27372,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D52" s="21" t="s">
         <v>4080</v>
@@ -27402,13 +27402,13 @@
         <v>3939</v>
       </c>
       <c r="M52" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N52" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O52" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N52" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O52" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P52" s="21" t="s">
         <v>4080</v>
@@ -27419,13 +27419,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D53" s="21" t="s">
         <v>4080</v>
@@ -27449,13 +27449,13 @@
         <v>4412</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P53" s="21" t="s">
         <v>4080</v>
@@ -27466,13 +27466,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>4080</v>
@@ -27481,13 +27481,13 @@
         <v>4412</v>
       </c>
       <c r="G54" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I54" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I54" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J54" s="21" t="s">
         <v>4080</v>
@@ -27496,13 +27496,13 @@
         <v>4412</v>
       </c>
       <c r="M54" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N54" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P54" s="21" t="s">
         <v>4080</v>
@@ -27513,13 +27513,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D55" s="21" t="s">
         <v>4080</v>
@@ -27528,13 +27528,13 @@
         <v>4412</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J55" s="21" t="s">
         <v>4080</v>
@@ -27545,13 +27545,13 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G56" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I56" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I56" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J56" s="21" t="s">
         <v>4080</v>
@@ -27562,13 +27562,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G57" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J57" s="21" t="s">
         <v>4080</v>
@@ -27579,13 +27579,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G58" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J58" s="21" t="s">
         <v>4080</v>
@@ -27596,13 +27596,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G59" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H59" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J59" s="21" t="s">
         <v>4080</v>
@@ -27900,13 +27900,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>4080</v>
@@ -27917,13 +27917,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D85" s="21" t="s">
         <v>4080</v>
@@ -27934,13 +27934,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>4080</v>
@@ -27951,13 +27951,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>4080</v>
@@ -27968,13 +27968,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>4080</v>
@@ -27985,13 +27985,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>4080</v>
@@ -28041,33 +28041,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>4684</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="15" t="s">
         <v>3993</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="60" t="s">
         <v>4687</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="15" t="s">
         <v>4289</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="60" t="s">
         <v>4694</v>
       </c>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="15" t="s">
         <v>3993</v>
       </c>
@@ -29147,13 +29147,13 @@
       </c>
       <c r="E27" s="1"/>
       <c r="G27" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>4080</v>
@@ -29192,13 +29192,13 @@
       </c>
       <c r="E28" s="1"/>
       <c r="G28" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J28" s="21" t="s">
         <v>4080</v>
@@ -29235,13 +29235,13 @@
       </c>
       <c r="E29" s="1"/>
       <c r="G29" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J29" s="21" t="s">
         <v>4080</v>
@@ -29278,13 +29278,13 @@
       </c>
       <c r="E30" s="1"/>
       <c r="G30" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>4080</v>
@@ -29321,13 +29321,13 @@
       </c>
       <c r="E31" s="1"/>
       <c r="G31" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>4080</v>
@@ -29364,13 +29364,13 @@
       </c>
       <c r="E32" s="1"/>
       <c r="G32" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J32" s="21" t="s">
         <v>4080</v>
@@ -29607,11 +29607,11 @@
       <c r="E40" s="1" t="s">
         <v>3891</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="61" t="s">
         <v>4688</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
       <c r="J40" s="18" t="s">
         <v>3993</v>
       </c>
@@ -29808,13 +29808,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>4080</v>
@@ -29853,13 +29853,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D46" s="21" t="s">
         <v>4080</v>
@@ -29900,13 +29900,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>4080</v>
@@ -29930,13 +29930,13 @@
         <v>3910</v>
       </c>
       <c r="M47" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N47" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O47" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N47" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O47" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P47" s="21" t="s">
         <v>4080</v>
@@ -29947,13 +29947,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>4080</v>
@@ -29977,13 +29977,13 @@
         <v>3911</v>
       </c>
       <c r="M48" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P48" s="21" t="s">
         <v>4080</v>
@@ -29994,13 +29994,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>4080</v>
@@ -30022,13 +30022,13 @@
         <v>4412</v>
       </c>
       <c r="M49" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N49" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O49" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N49" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P49" s="21" t="s">
         <v>4080</v>
@@ -30039,13 +30039,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>4080</v>
@@ -30067,13 +30067,13 @@
         <v>4412</v>
       </c>
       <c r="M50" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O50" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N50" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P50" s="21" t="s">
         <v>4080</v>
@@ -30097,13 +30097,13 @@
         <v>4412</v>
       </c>
       <c r="M51" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P51" s="21" t="s">
         <v>4080</v>
@@ -30127,13 +30127,13 @@
         <v>4412</v>
       </c>
       <c r="M52" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N52" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O52" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P52" s="21" t="s">
         <v>4080</v>
@@ -30143,11 +30143,11 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="60" t="s">
         <v>4685</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="15" t="s">
         <v>4288</v>
       </c>
@@ -30877,11 +30877,11 @@
       <c r="K78" s="1" t="s">
         <v>3913</v>
       </c>
-      <c r="M78" s="59" t="s">
+      <c r="M78" s="60" t="s">
         <v>4693</v>
       </c>
-      <c r="N78" s="59"/>
-      <c r="O78" s="59"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="60"/>
       <c r="P78" s="15" t="s">
         <v>4289</v>
       </c>
@@ -30990,13 +30990,13 @@
       </c>
       <c r="E81" s="1"/>
       <c r="G81" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I81" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J81" s="21" t="s">
         <v>4080</v>
@@ -31033,13 +31033,13 @@
       </c>
       <c r="E82" s="1"/>
       <c r="G82" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H82" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I82" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J82" s="21" t="s">
         <v>4080</v>
@@ -31074,13 +31074,13 @@
       </c>
       <c r="E83" s="1"/>
       <c r="G83" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I83" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I83" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J83" s="21" t="s">
         <v>4080</v>
@@ -31117,13 +31117,13 @@
       </c>
       <c r="E84" s="1"/>
       <c r="G84" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I84" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J84" s="21" t="s">
         <v>4080</v>
@@ -31160,13 +31160,13 @@
       </c>
       <c r="E85" s="1"/>
       <c r="G85" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H85" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J85" s="21" t="s">
         <v>4080</v>
@@ -31205,13 +31205,13 @@
       </c>
       <c r="E86" s="1"/>
       <c r="G86" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H86" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I86" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J86" s="21" t="s">
         <v>4080</v>
@@ -31325,13 +31325,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>4080</v>
@@ -31355,13 +31355,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>4080</v>
@@ -31387,13 +31387,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D92" s="21" t="s">
         <v>4080</v>
@@ -31419,13 +31419,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D93" s="21" t="s">
         <v>4080</v>
@@ -31451,13 +31451,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>4080</v>
@@ -31481,13 +31481,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>4080</v>
@@ -31652,11 +31652,11 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="60" t="s">
+      <c r="A101" s="61" t="s">
         <v>4686</v>
       </c>
-      <c r="B101" s="61"/>
-      <c r="C101" s="62"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="63"/>
       <c r="D101" s="17" t="s">
         <v>3993</v>
       </c>
@@ -32469,13 +32469,13 @@
       </c>
       <c r="K120" s="1"/>
       <c r="M120" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N120" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O120" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N120" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O120" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P120" s="21" t="s">
         <v>4080</v>
@@ -32512,13 +32512,13 @@
       </c>
       <c r="K121" s="1"/>
       <c r="M121" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N121" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O121" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P121" s="21" t="s">
         <v>4080</v>
@@ -32555,13 +32555,13 @@
       </c>
       <c r="K122" s="1"/>
       <c r="M122" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N122" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O122" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N122" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O122" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P122" s="21" t="s">
         <v>4080</v>
@@ -32598,13 +32598,13 @@
       </c>
       <c r="K123" s="1"/>
       <c r="M123" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N123" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O123" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N123" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O123" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P123" s="21" t="s">
         <v>4080</v>
@@ -32641,13 +32641,13 @@
       </c>
       <c r="K124" s="1"/>
       <c r="M124" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N124" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P124" s="21" t="s">
         <v>4080</v>
@@ -32686,13 +32686,13 @@
       </c>
       <c r="K125" s="1"/>
       <c r="M125" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N125" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P125" s="21" t="s">
         <v>4080</v>
@@ -32902,11 +32902,11 @@
         <v>4385</v>
       </c>
       <c r="K132" s="1"/>
-      <c r="M132" s="60" t="s">
+      <c r="M132" s="61" t="s">
         <v>4692</v>
       </c>
-      <c r="N132" s="61"/>
-      <c r="O132" s="62"/>
+      <c r="N132" s="62"/>
+      <c r="O132" s="63"/>
       <c r="P132" s="17" t="s">
         <v>4065</v>
       </c>
@@ -33000,13 +33000,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C135" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D135" s="21" t="s">
         <v>4080</v>
@@ -33043,13 +33043,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D136" s="21" t="s">
         <v>4080</v>
@@ -33086,13 +33086,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C137" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D137" s="21" t="s">
         <v>4080</v>
@@ -33129,13 +33129,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C138" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D138" s="21" t="s">
         <v>4080</v>
@@ -33172,13 +33172,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>4080</v>
@@ -33215,13 +33215,13 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D140" s="21" t="s">
         <v>4080</v>
@@ -33344,13 +33344,13 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G144" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I144" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H144" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I144" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J144" s="21" t="s">
         <v>4080</v>
@@ -33374,13 +33374,13 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G145" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H145" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I145" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J145" s="21" t="s">
         <v>4080</v>
@@ -33403,11 +33403,11 @@
       <c r="Q145" s="1"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="60" t="s">
+      <c r="A146" s="61" t="s">
         <v>4691</v>
       </c>
-      <c r="B146" s="61"/>
-      <c r="C146" s="62"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="63"/>
       <c r="D146" s="17" t="s">
         <v>4621</v>
       </c>
@@ -33415,13 +33415,13 @@
         <v>948</v>
       </c>
       <c r="G146" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I146" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H146" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I146" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J146" s="21" t="s">
         <v>4080</v>
@@ -33457,13 +33457,13 @@
         <v>4412</v>
       </c>
       <c r="G147" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H147" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I147" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H147" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I147" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J147" s="21" t="s">
         <v>4080</v>
@@ -33498,13 +33498,13 @@
       <c r="D148" s="28"/>
       <c r="E148" s="28"/>
       <c r="G148" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H148" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J148" s="21" t="s">
         <v>4080</v>
@@ -33541,13 +33541,13 @@
         <v>3880</v>
       </c>
       <c r="G149" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H149" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I149" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J149" s="21" t="s">
         <v>4080</v>
@@ -33989,13 +33989,13 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="C162" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="D162" s="21" t="s">
         <v>4080</v>
@@ -34032,13 +34032,13 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="D163" s="21" t="s">
         <v>4080</v>
@@ -34075,13 +34075,13 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C164" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="C164" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="D164" s="21" t="s">
         <v>4080</v>
@@ -34118,13 +34118,13 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C165" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>4080</v>
@@ -34162,13 +34162,13 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="D166" s="21" t="s">
         <v>4080</v>
@@ -34190,13 +34190,13 @@
         <v>4412</v>
       </c>
       <c r="M166" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="N166" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="O166" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="N166" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="O166" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="P166" s="21" t="s">
         <v>4080</v>
@@ -34207,13 +34207,13 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B167" s="21" t="s">
         <v>434</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="D167" s="21" t="s">
         <v>4080</v>
@@ -34235,13 +34235,13 @@
       </c>
       <c r="K167" s="1"/>
       <c r="M167" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="N167" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O167" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="P167" s="21" t="s">
         <v>4080</v>
@@ -34265,13 +34265,13 @@
       </c>
       <c r="K168" s="1"/>
       <c r="M168" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="N168" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="O168" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="N168" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="O168" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="P168" s="21" t="s">
         <v>4080</v>
@@ -34295,13 +34295,13 @@
       </c>
       <c r="K169" s="1"/>
       <c r="M169" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="N169" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="O169" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="N169" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="O169" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="P169" s="21" t="s">
         <v>4080</v>
@@ -34325,13 +34325,13 @@
       </c>
       <c r="K170" s="1"/>
       <c r="M170" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="N170" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="O170" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="P170" s="21" t="s">
         <v>4080</v>
@@ -34355,13 +34355,13 @@
       </c>
       <c r="K171" s="1"/>
       <c r="M171" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="N171" s="21" t="s">
         <v>434</v>
       </c>
       <c r="O171" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="P171" s="21" t="s">
         <v>4080</v>
@@ -34530,13 +34530,13 @@
     </row>
     <row r="182" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G182" s="21" t="s">
+        <v>4773</v>
+      </c>
+      <c r="H182" s="21" t="s">
+        <v>4774</v>
+      </c>
+      <c r="I182" s="21" t="s">
         <v>4775</v>
-      </c>
-      <c r="H182" s="21" t="s">
-        <v>4776</v>
-      </c>
-      <c r="I182" s="21" t="s">
-        <v>4777</v>
       </c>
       <c r="J182" s="21" t="s">
         <v>4080</v>
@@ -34547,13 +34547,13 @@
     </row>
     <row r="183" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G183" s="21" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="H183" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I183" s="21" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="J183" s="21" t="s">
         <v>4080</v>
@@ -34564,13 +34564,13 @@
     </row>
     <row r="184" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G184" s="21" t="s">
+        <v>4778</v>
+      </c>
+      <c r="H184" s="21" t="s">
+        <v>4779</v>
+      </c>
+      <c r="I184" s="21" t="s">
         <v>4780</v>
-      </c>
-      <c r="H184" s="21" t="s">
-        <v>4781</v>
-      </c>
-      <c r="I184" s="21" t="s">
-        <v>4782</v>
       </c>
       <c r="J184" s="21" t="s">
         <v>4080</v>
@@ -34581,13 +34581,13 @@
     </row>
     <row r="185" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G185" s="21" t="s">
+        <v>4781</v>
+      </c>
+      <c r="H185" s="21" t="s">
+        <v>4782</v>
+      </c>
+      <c r="I185" s="21" t="s">
         <v>4783</v>
-      </c>
-      <c r="H185" s="21" t="s">
-        <v>4784</v>
-      </c>
-      <c r="I185" s="21" t="s">
-        <v>4785</v>
       </c>
       <c r="J185" s="21" t="s">
         <v>4080</v>
@@ -34598,13 +34598,13 @@
     </row>
     <row r="186" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G186" s="21" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="H186" s="21" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="I186" s="21" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="J186" s="21" t="s">
         <v>4080</v>
@@ -34615,13 +34615,13 @@
     </row>
     <row r="187" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G187" s="21" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="H187" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I187" s="21" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="J187" s="21" t="s">
         <v>4080</v>
@@ -34670,10 +34670,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>4770</v>
+        <v>4768</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>4731</v>
+        <v>4729</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>956</v>
@@ -34696,31 +34696,31 @@
     </row>
     <row r="2" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
-        <v>4771</v>
+        <v>4769</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>4761</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>4762</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>4763</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="E2" s="57" t="s">
         <v>4764</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>4765</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="G2" s="57" t="s">
         <v>4766</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>4767</v>
       </c>
-      <c r="G2" s="57" t="s">
-        <v>4768</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>4769</v>
-      </c>
       <c r="I2" s="58" t="s">
-        <v>4772</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" activeTab="2"/>
+    <workbookView windowWidth="24240" windowHeight="10275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10364" uniqueCount="4266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10374" uniqueCount="4266">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -12828,8 +12828,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -12900,21 +12900,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -12923,45 +12908,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12976,9 +12922,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12989,23 +12943,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13027,7 +12967,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -13038,6 +13030,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13070,31 +13070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13106,97 +13094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13208,7 +13106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13226,7 +13124,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13238,24 +13220,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -13340,6 +13340,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -13354,6 +13363,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13384,50 +13432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13452,10 +13461,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13464,137 +13473,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -13639,13 +13648,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13991,7 +14002,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14072,8 +14083,8 @@
       </c>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="9" t="s">
@@ -14118,8 +14129,8 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
@@ -14164,8 +14175,8 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
@@ -14210,8 +14221,8 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="10" t="s">
@@ -14258,8 +14269,8 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="8" t="s">
@@ -14306,8 +14317,8 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
@@ -14352,8 +14363,8 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
@@ -14400,8 +14411,8 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="2" t="s">
@@ -14448,8 +14459,8 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="13" t="s">
@@ -14498,8 +14509,8 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="8" t="s">
@@ -14545,11 +14556,11 @@
         <v>82</v>
       </c>
       <c r="Q11" s="2"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
@@ -14702,7 +14713,7 @@
       <c r="Q14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="40" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="9" t="s">
@@ -14882,19 +14893,19 @@
       <c r="Q18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="T18" s="29" t="s">
+      <c r="T18" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="29" t="s">
+      <c r="U18" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="29" t="s">
+      <c r="V18" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="W18" s="29" t="s">
+      <c r="W18" s="31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15493,19 +15504,19 @@
         <v>111</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="31" t="s">
         <v>191</v>
       </c>
       <c r="M32" s="2" t="s">
@@ -15611,17 +15622,17 @@
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31" t="s">
+      <c r="D35" s="33"/>
+      <c r="E35" s="33" t="s">
         <v>209</v>
       </c>
       <c r="G35" s="19" t="s">
@@ -15663,7 +15674,7 @@
       <c r="C36" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="34" t="s">
         <v>209</v>
       </c>
       <c r="G36" s="9" t="s">
@@ -15779,13 +15790,13 @@
       <c r="A39" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="34" t="s">
         <v>209</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -15825,7 +15836,7 @@
       <c r="C40" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="35" t="s">
         <v>209</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -16175,7 +16186,7 @@
       <c r="D48" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="36" t="s">
         <v>257</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -16296,16 +16307,16 @@
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="37" t="s">
         <v>276</v>
       </c>
       <c r="E52" s="27" t="s">
@@ -16339,16 +16350,16 @@
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="37" t="s">
         <v>281</v>
       </c>
       <c r="E53" s="27" t="s">
@@ -16562,8 +16573,8 @@
       <c r="E58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
       <c r="M58" s="2" t="s">
         <v>293</v>
       </c>
@@ -16594,8 +16605,8 @@
       <c r="E59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
       <c r="M59" s="2" t="s">
         <v>45</v>
       </c>
@@ -16626,8 +16637,8 @@
       <c r="E60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
       <c r="M60" s="10" t="s">
         <v>33</v>
       </c>
@@ -16643,8 +16654,8 @@
       <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="10:17">
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
       <c r="M61" s="13" t="s">
         <v>72</v>
       </c>
@@ -16662,8 +16673,8 @@
       </c>
     </row>
     <row r="62" spans="10:17">
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
       <c r="M62" s="8" t="s">
         <v>77</v>
       </c>
@@ -16692,8 +16703,8 @@
       <c r="E63" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
       <c r="M63" s="8" t="s">
         <v>83</v>
       </c>
@@ -17032,7 +17043,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="19" t="s">
@@ -17369,8 +17380,8 @@
   <sheetPr/>
   <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -19781,7 +19792,7 @@
         <v>542</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>543</v>
@@ -20125,6 +20136,21 @@
         <v>696</v>
       </c>
       <c r="E69" s="2"/>
+      <c r="G69" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="M69" s="13" t="s">
         <v>697</v>
       </c>
@@ -20154,7 +20180,23 @@
       <c r="D70" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="M70" s="2" t="s">
         <v>61</v>
       </c>
@@ -20606,13 +20648,13 @@
       <c r="H82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I82" s="28" t="s">
+      <c r="I82" s="30" t="s">
         <v>754</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="K82" s="28"/>
+      <c r="K82" s="30"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="2" t="s">
@@ -21248,7 +21290,7 @@
       <c r="D99" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="E99" s="28"/>
+      <c r="E99" s="30"/>
       <c r="M99" s="2" t="s">
         <v>68</v>
       </c>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="10275" activeTab="2"/>
+    <workbookView windowWidth="16395" windowHeight="10275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -1237,7 +1237,7 @@
     <t>OUT_UNIT_NAME</t>
   </si>
   <si>
-    <t>调往公司名称</t>
+    <t>调往公司名称 异动前</t>
   </si>
   <si>
     <t>OutUnitsName</t>
@@ -1255,7 +1255,7 @@
     <t>COME_UNIT_NAME</t>
   </si>
   <si>
-    <t>调来原公司名称</t>
+    <t>调来原公司名称 异动后</t>
   </si>
   <si>
     <t>ComeUnitsName</t>
@@ -12828,10 +12828,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -12906,8 +12906,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12922,7 +12923,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12933,21 +12971,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12967,9 +12990,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -12983,6 +13013,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -12990,54 +13036,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13070,25 +13070,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13106,19 +13172,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13130,7 +13202,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13148,60 +13244,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -13209,48 +13251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13358,24 +13358,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -13391,17 +13373,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -13421,26 +13406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -13455,16 +13420,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13473,133 +13473,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -13646,8 +13646,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15494,7 +15494,7 @@
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -15665,13 +15665,13 @@
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>212</v>
       </c>
       <c r="E36" s="34" t="s">
@@ -15787,7 +15787,7 @@
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>213</v>
       </c>
       <c r="B39" s="32" t="s">
@@ -15827,13 +15827,13 @@
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>216</v>
       </c>
       <c r="E40" s="35" t="s">
@@ -16174,16 +16174,16 @@
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="26" t="s">
         <v>256</v>
       </c>
       <c r="E48" s="36" t="s">
@@ -16319,7 +16319,7 @@
       <c r="D52" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>277</v>
       </c>
       <c r="G52" s="8" t="s">
@@ -16362,7 +16362,7 @@
       <c r="D53" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="26" t="s">
         <v>277</v>
       </c>
       <c r="G53" s="8" t="s">
@@ -17380,8 +17380,8 @@
   <sheetPr/>
   <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17391,7 +17391,7 @@
     <col min="3" max="5" width="38" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="28.625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
     <col min="11" max="11" width="16.125" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
@@ -17842,7 +17842,7 @@
       <c r="H11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="26" t="s">
         <v>404</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -17883,7 +17883,7 @@
       <c r="H12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="26" t="s">
         <v>410</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -18371,19 +18371,19 @@
       <c r="K23" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="O23" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="P23" s="26" t="s">
+      <c r="P23" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q23" s="26" t="s">
+      <c r="Q23" s="27" t="s">
         <v>477</v>
       </c>
     </row>
@@ -19278,19 +19278,19 @@
         <v>575</v>
       </c>
       <c r="K48" s="2"/>
-      <c r="M48" s="27" t="s">
+      <c r="M48" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="N48" s="27" t="s">
+      <c r="N48" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O48" s="27" t="s">
+      <c r="O48" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="P48" s="27" t="s">
+      <c r="P48" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="27" t="s">
+      <c r="Q48" s="26" t="s">
         <v>11</v>
       </c>
     </row>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10638" uniqueCount="4354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10638" uniqueCount="4355">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -13646,20 +13646,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO sys_dict(type,description)
-select type, typename from other_dict 
-group by  type, typename
-insert into  sys_dict_item (dict_id, value,label,type,sort)
-select 
-(select id from sys_dict d where d.type = o.type)dict_id,
-o.val ,
-o.label,
-o.type,
-o.sort
-from other_dict o</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>MP_UserPost员工岗位表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -13710,6 +13696,24 @@
   </si>
   <si>
     <t>任职岗位类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RYXZ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO sys_dict(type,description)
+select type, typename from other_dict 
+group by  type, typename
+insert into  sys_dict_item (dict_id, value,label,type,sort)
+select 
+(select id from sys_dict d where d.type = o.type)dict_id,
+o.val ,
+o.description,
+o.type,
+o.sort
+from other_dict o</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -18004,7 +18008,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>92</v>
@@ -21024,7 +21028,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="M85" s="14" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="N85" s="15"/>
       <c r="O85" s="16"/>
@@ -51973,8 +51977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -51987,7 +51991,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="55" t="s">
-        <v>4343</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -52021,7 +52025,7 @@
         <v>4011</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>4267</v>
+        <v>4353</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -52302,7 +52306,7 @@
         <v>4015</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -56593,16 +56597,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="41" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C232" s="41" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D232" s="45" t="s">
         <v>4347</v>
-      </c>
-      <c r="B232" s="41" t="s">
-        <v>4349</v>
-      </c>
-      <c r="C232" s="41" t="s">
-        <v>4349</v>
-      </c>
-      <c r="D232" s="45" t="s">
-        <v>4348</v>
       </c>
       <c r="E232" s="46">
         <v>1</v>
@@ -56613,16 +56617,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="41" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>4349</v>
+      </c>
+      <c r="C233" s="41" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D233" s="45" t="s">
         <v>4347</v>
-      </c>
-      <c r="B233" s="41" t="s">
-        <v>4350</v>
-      </c>
-      <c r="C233" s="41" t="s">
-        <v>4350</v>
-      </c>
-      <c r="D233" s="45" t="s">
-        <v>4348</v>
       </c>
       <c r="E233" s="46">
         <v>2</v>
@@ -56633,16 +56637,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="41" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="B234" s="41" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C234" s="41" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D234" s="45" t="s">
         <v>4351</v>
-      </c>
-      <c r="C234" s="41" t="s">
-        <v>4351</v>
-      </c>
-      <c r="D234" s="45" t="s">
-        <v>4352</v>
       </c>
       <c r="E234" s="46">
         <v>3</v>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10638" uniqueCount="4355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10648" uniqueCount="4360">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -13716,12 +13716,32 @@
 from other_dict o</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>OFFICE_POST_TYPE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任职岗位类型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无，代替上面两个字段</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代替 isMaster isVirtual</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13810,6 +13830,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -13939,7 +13975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -14036,6 +14072,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -17699,8 +17739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="G100" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21491,16 +21531,16 @@
         <v>109</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="47" t="s">
         <v>793</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="N96" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="O96" s="47" t="s">
         <v>794</v>
       </c>
-      <c r="P96" s="2" t="s">
+      <c r="P96" s="47" t="s">
         <v>795</v>
       </c>
       <c r="Q96" s="2"/>
@@ -21521,17 +21561,15 @@
       <c r="E97" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="M97" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>397</v>
+      <c r="M97" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="N97" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="O97" s="47"/>
+      <c r="P97" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="Q97" s="2"/>
     </row>
@@ -21551,19 +21589,21 @@
       <c r="E98" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M98" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q98" s="2"/>
+      <c r="M98" s="60" t="s">
+        <v>4355</v>
+      </c>
+      <c r="N98" s="62" t="s">
+        <v>4357</v>
+      </c>
+      <c r="O98" s="60" t="s">
+        <v>4356</v>
+      </c>
+      <c r="P98" s="60" t="s">
+        <v>4358</v>
+      </c>
+      <c r="Q98" s="63" t="s">
+        <v>4359</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
@@ -21580,16 +21620,16 @@
       </c>
       <c r="E99" s="28"/>
       <c r="M99" s="2" t="s">
-        <v>68</v>
+        <v>395</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>71</v>
+        <v>397</v>
       </c>
       <c r="Q99" s="2"/>
     </row>
@@ -21608,16 +21648,16 @@
       </c>
       <c r="E100" s="2"/>
       <c r="M100" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="Q100" s="2"/>
     </row>
@@ -21636,16 +21676,16 @@
       </c>
       <c r="E101" s="2"/>
       <c r="M101" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Q101" s="2"/>
     </row>
@@ -21674,15 +21714,17 @@
       <c r="K102" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="22" t="s">
-        <v>217</v>
+      <c r="M102" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O102" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="P102" s="2" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="Q102" s="2"/>
     </row>
@@ -21716,16 +21758,17 @@
       </c>
       <c r="K103" s="2"/>
       <c r="M103" s="2" t="s">
-        <v>605</v>
+        <v>80</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O103" s="2"/>
+      <c r="O103" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="P103" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="Q103" s="2"/>
+        <v>82</v>
+      </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
@@ -21759,14 +21802,14 @@
         <v>782</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="Q104" s="2"/>
     </row>
@@ -21802,16 +21845,14 @@
         <v>475</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>150</v>
+        <v>542</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>825</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="Q105" s="2"/>
     </row>
@@ -21842,21 +21883,19 @@
         <v>32</v>
       </c>
       <c r="K106" s="19"/>
-      <c r="M106" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N106" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O106" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P106" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q106" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="M106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q106" s="2"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
@@ -21887,14 +21926,14 @@
       <c r="K107" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="M107" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="N107" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O107" s="8" t="s">
-        <v>79</v>
+      <c r="M107" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="P107" s="8" t="s">
         <v>10</v>
@@ -21933,13 +21972,13 @@
       </c>
       <c r="K108" s="8"/>
       <c r="M108" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N108" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P108" s="8" t="s">
         <v>10</v>
@@ -21980,13 +22019,13 @@
         <v>782</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N109" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P109" s="8" t="s">
         <v>10</v>
@@ -22027,13 +22066,13 @@
         <v>475</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N110" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P110" s="8" t="s">
         <v>10</v>
@@ -22072,13 +22111,13 @@
       </c>
       <c r="K111" s="8"/>
       <c r="M111" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N111" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O111" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P111" s="8" t="s">
         <v>10</v>
@@ -22119,13 +22158,13 @@
         <v>210</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P112" s="8" t="s">
         <v>10</v>
@@ -22150,19 +22189,34 @@
       <c r="E113" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="61" t="s">
         <v>793</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="I113" s="61" t="s">
         <v>794</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="61" t="s">
         <v>795</v>
       </c>
       <c r="K113" s="2"/>
+      <c r="M113" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
@@ -22180,92 +22234,93 @@
       <c r="E114" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>397</v>
+      <c r="G114" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="H114" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I114" s="61" t="s">
+        <v>835</v>
+      </c>
+      <c r="J114" s="61" t="s">
+        <v>219</v>
       </c>
       <c r="K114" s="2"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G115" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="K115" s="2"/>
+      <c r="G115" s="60" t="s">
+        <v>4355</v>
+      </c>
+      <c r="H115" s="62" t="s">
+        <v>4357</v>
+      </c>
+      <c r="I115" s="60" t="s">
+        <v>4356</v>
+      </c>
+      <c r="J115" s="60" t="s">
+        <v>4358</v>
+      </c>
+      <c r="K115" s="63" t="s">
+        <v>4359</v>
+      </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G116" s="2" t="s">
-        <v>542</v>
+        <v>395</v>
       </c>
       <c r="H116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G117" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G117" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I117" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>219</v>
+        <v>817</v>
       </c>
       <c r="K117" s="2"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G118" s="2" t="s">
-        <v>61</v>
+        <v>542</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>62</v>
+        <v>834</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K118" s="2"/>
+        <v>821</v>
+      </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G119" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K119" s="2"/>
       <c r="M119" s="14" t="s">
@@ -22282,16 +22337,16 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G120" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K120" s="2"/>
       <c r="M120" s="19" t="s">
@@ -22310,16 +22365,16 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G121" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K121" s="2"/>
       <c r="M121" s="19" t="s">
@@ -22340,16 +22395,16 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G122" s="2" t="s">
-        <v>843</v>
+        <v>80</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>840</v>
+        <v>81</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>841</v>
+        <v>82</v>
       </c>
       <c r="K122" s="2"/>
       <c r="M122" s="19" t="s">
@@ -22370,16 +22425,16 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>843</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
       <c r="K123" s="2"/>
       <c r="M123" s="8" t="s">
@@ -22399,21 +22454,19 @@
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G124" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J124" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="G124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="K124" s="2"/>
       <c r="M124" s="8" t="s">
         <v>848</v>
       </c>
@@ -22431,14 +22484,14 @@
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G125" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>79</v>
+      <c r="G125" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="J125" s="8" t="s">
         <v>10</v>
@@ -22464,13 +22517,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G126" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J126" s="8" t="s">
         <v>10</v>
@@ -22494,13 +22547,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G127" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H127" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J127" s="8" t="s">
         <v>10</v>
@@ -22524,13 +22577,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="G128" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J128" s="8" t="s">
         <v>10</v>
@@ -22554,13 +22607,13 @@
     </row>
     <row r="129" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G129" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>10</v>
@@ -22584,13 +22637,13 @@
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G130" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>10</v>
@@ -22615,6 +22668,21 @@
       </c>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G131" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="M131" s="8" t="s">
         <v>77</v>
       </c>
@@ -23242,7 +23310,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23250,7 +23318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="K43" workbookViewId="0">
+    <sheetView topLeftCell="K58" workbookViewId="0">
       <selection activeCell="M54" sqref="M54:Q54"/>
     </sheetView>
   </sheetViews>
@@ -51977,8 +52045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -56599,7 +56667,7 @@
       <c r="A232" s="41" t="s">
         <v>4346</v>
       </c>
-      <c r="B232" s="41" t="s">
+      <c r="B232" s="45" t="s">
         <v>4348</v>
       </c>
       <c r="C232" s="41" t="s">
@@ -56619,7 +56687,7 @@
       <c r="A233" s="41" t="s">
         <v>4346</v>
       </c>
-      <c r="B233" s="41" t="s">
+      <c r="B233" s="45" t="s">
         <v>4349</v>
       </c>
       <c r="C233" s="41" t="s">

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10845" uniqueCount="4379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10844" uniqueCount="4379">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -2713,7 +2713,7 @@
     <t>remarks</t>
   </si>
   <si>
-    <t xml:space="preserve"> MP_staffRewardsPulishments 员工奖惩表</t>
+    <t xml:space="preserve"> mp_staff_rewards_pulishments 员工奖惩表</t>
   </si>
   <si>
     <t>type</t>
@@ -13918,8 +13918,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -13990,7 +13990,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14019,32 +14079,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14059,21 +14095,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -14081,38 +14102,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14126,10 +14126,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14160,6 +14160,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14172,13 +14190,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14190,25 +14226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14220,19 +14238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14250,31 +14262,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14286,13 +14298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14304,19 +14310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14334,13 +14334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14439,6 +14439,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -14487,6 +14511,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -14501,51 +14536,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14554,133 +14554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18484,7 +18484,7 @@
   <sheetPr/>
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H163" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I160" workbookViewId="0">
       <selection activeCell="M172" sqref="M172:O172"/>
     </sheetView>
   </sheetViews>
@@ -24477,9 +24477,7 @@
       <c r="P173" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q173" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="Q173" s="6"/>
     </row>
     <row r="174" ht="28.5" spans="13:17">
       <c r="M174" s="6" t="s">

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -18484,8 +18484,8 @@
   <sheetPr/>
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I160" workbookViewId="0">
-      <selection activeCell="M172" sqref="M172:O172"/>
+    <sheetView tabSelected="1" topLeftCell="I163" workbookViewId="0">
+      <selection activeCell="M179" sqref="M179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -1963,7 +1963,7 @@
     <t>中心/项目</t>
   </si>
   <si>
-    <t>是否当前生效合同</t>
+    <t>是否当前生效合同 （合同是否生效）</t>
   </si>
   <si>
     <t>ADMISSION_GRADUATES</t>
@@ -13918,10 +13918,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -13997,7 +13997,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14019,24 +14095,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14044,59 +14104,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14118,18 +14125,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14160,7 +14160,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14172,7 +14232,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14184,37 +14304,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14226,121 +14334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14439,54 +14439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -14511,17 +14463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -14536,16 +14477,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14554,133 +14554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18484,8 +18484,8 @@
   <sheetPr/>
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I163" workbookViewId="0">
-      <selection activeCell="M179" sqref="M179"/>
+    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18500,7 +18500,8 @@
     <col min="11" max="11" width="16.125" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
     <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="16" width="19.125" customWidth="1"/>
+    <col min="15" max="15" width="35" customWidth="1"/>
+    <col min="16" max="16" width="19.125" customWidth="1"/>
     <col min="17" max="17" width="46.25" customWidth="1"/>
   </cols>
   <sheetData>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10844" uniqueCount="4379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10846" uniqueCount="4379">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -2500,6 +2500,9 @@
     <t>PaySecurityUnit</t>
   </si>
   <si>
+    <t>任职日期</t>
+  </si>
+  <si>
     <t>BeginDate</t>
   </si>
   <si>
@@ -2512,6 +2515,9 @@
     <t>PayFundUnits</t>
   </si>
   <si>
+    <t>免职日期</t>
+  </si>
+  <si>
     <t>EndDate</t>
   </si>
   <si>
@@ -2540,12 +2546,6 @@
   </si>
   <si>
     <t>是否虚拟</t>
-  </si>
-  <si>
-    <t>任职日期</t>
-  </si>
-  <si>
-    <t>免职日期</t>
   </si>
   <si>
     <t>MP_UserPostRole用户岗位角色表</t>
@@ -13918,10 +13918,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -13997,21 +13997,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -14027,7 +14035,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14035,7 +14043,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14051,24 +14059,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14081,7 +14074,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14096,38 +14112,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14160,13 +14160,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14178,19 +14214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14202,73 +14226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14286,7 +14250,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14298,7 +14292,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14310,37 +14340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14442,8 +14442,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14480,56 +14530,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -14545,7 +14545,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14554,133 +14554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15126,8 +15126,8 @@
   <sheetPr/>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="I28" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18484,8 +18484,8 @@
   <sheetPr/>
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" topLeftCell="I91" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104:M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -22553,24 +22553,26 @@
       <c r="N104" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O104" s="6"/>
+      <c r="O104" s="6" t="s">
+        <v>825</v>
+      </c>
       <c r="P104" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="Q104" s="6"/>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>819</v>
@@ -22596,24 +22598,26 @@
       <c r="N105" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O105" s="6"/>
+      <c r="O105" s="6" t="s">
+        <v>830</v>
+      </c>
       <c r="P105" s="6" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="Q105" s="6"/>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="6" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E106" s="6"/>
       <c r="G106" s="33" t="s">
@@ -22636,25 +22640,25 @@
         <v>92</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="Q106" s="6"/>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="6" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>458</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E107" s="6"/>
       <c r="G107" s="33" t="s">
@@ -22987,7 +22991,7 @@
         <v>54</v>
       </c>
       <c r="I114" s="36" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J114" s="36" t="s">
         <v>219</v>
@@ -23034,10 +23038,10 @@
         <v>69</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K117" s="6"/>
     </row>
@@ -23049,10 +23053,10 @@
         <v>69</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="7:17">
@@ -23207,10 +23211,10 @@
         <v>92</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K124" s="6"/>
       <c r="M124" s="22" t="s">
@@ -28943,10 +28947,10 @@
         <v>92</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E43" s="6"/>
       <c r="G43" s="6" t="s">
@@ -30127,10 +30131,10 @@
         <v>92</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>153</v>
@@ -30488,10 +30492,10 @@
         <v>92</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>153</v>
@@ -33505,10 +33509,10 @@
         <v>69</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="K169" s="6"/>
       <c r="M169" s="22" t="s">
@@ -33535,10 +33539,10 @@
         <v>69</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="K170" s="6"/>
       <c r="M170" s="22" t="s">
@@ -50100,7 +50104,7 @@
         <v>3610</v>
       </c>
       <c r="E772" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F772" s="6" t="s">
         <v>151</v>
@@ -50121,7 +50125,7 @@
         <v>3613</v>
       </c>
       <c r="E773" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F773" s="6" t="s">
         <v>151</v>
@@ -50142,7 +50146,7 @@
         <v>3616</v>
       </c>
       <c r="E774" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F774" s="6" t="s">
         <v>151</v>
@@ -50163,7 +50167,7 @@
         <v>3619</v>
       </c>
       <c r="E775" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F775" s="6" t="s">
         <v>151</v>
@@ -50184,7 +50188,7 @@
         <v>3622</v>
       </c>
       <c r="E776" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F776" s="6" t="s">
         <v>151</v>
@@ -50205,7 +50209,7 @@
         <v>3625</v>
       </c>
       <c r="E777" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F777" s="6" t="s">
         <v>151</v>
@@ -50226,7 +50230,7 @@
         <v>3628</v>
       </c>
       <c r="E778" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F778" s="6" t="s">
         <v>151</v>
@@ -50247,7 +50251,7 @@
         <v>3631</v>
       </c>
       <c r="E779" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F779" s="6" t="s">
         <v>151</v>
@@ -50268,7 +50272,7 @@
         <v>3634</v>
       </c>
       <c r="E780" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F780" s="6" t="s">
         <v>151</v>
@@ -50289,7 +50293,7 @@
         <v>3637</v>
       </c>
       <c r="E781" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F781" s="6" t="s">
         <v>151</v>
@@ -50310,7 +50314,7 @@
         <v>3640</v>
       </c>
       <c r="E782" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F782" s="6" t="s">
         <v>151</v>
@@ -50331,7 +50335,7 @@
         <v>3643</v>
       </c>
       <c r="E783" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F783" s="6" t="s">
         <v>151</v>
@@ -50352,7 +50356,7 @@
         <v>3646</v>
       </c>
       <c r="E784" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F784" s="6" t="s">
         <v>151</v>
@@ -50373,7 +50377,7 @@
         <v>3649</v>
       </c>
       <c r="E785" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F785" s="6" t="s">
         <v>151</v>
@@ -50394,7 +50398,7 @@
         <v>3652</v>
       </c>
       <c r="E786" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F786" s="6" t="s">
         <v>151</v>
@@ -50415,7 +50419,7 @@
         <v>3655</v>
       </c>
       <c r="E787" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F787" s="6" t="s">
         <v>151</v>
@@ -50436,7 +50440,7 @@
         <v>3658</v>
       </c>
       <c r="E788" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F788" s="6" t="s">
         <v>151</v>
@@ -50457,7 +50461,7 @@
         <v>3661</v>
       </c>
       <c r="E789" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F789" s="6" t="s">
         <v>151</v>
@@ -50478,7 +50482,7 @@
         <v>3664</v>
       </c>
       <c r="E790" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F790" s="6" t="s">
         <v>151</v>
@@ -50499,7 +50503,7 @@
         <v>3667</v>
       </c>
       <c r="E791" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F791" s="6" t="s">
         <v>151</v>
@@ -50520,7 +50524,7 @@
         <v>3670</v>
       </c>
       <c r="E792" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F792" s="6" t="s">
         <v>151</v>
@@ -50541,7 +50545,7 @@
         <v>3673</v>
       </c>
       <c r="E793" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F793" s="6" t="s">
         <v>151</v>
@@ -50562,7 +50566,7 @@
         <v>3676</v>
       </c>
       <c r="E794" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F794" s="6" t="s">
         <v>151</v>
@@ -50583,7 +50587,7 @@
         <v>3679</v>
       </c>
       <c r="E795" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F795" s="6" t="s">
         <v>151</v>
@@ -50604,7 +50608,7 @@
         <v>3682</v>
       </c>
       <c r="E796" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F796" s="6" t="s">
         <v>151</v>
@@ -50625,7 +50629,7 @@
         <v>1791</v>
       </c>
       <c r="E797" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F797" s="6" t="s">
         <v>151</v>
@@ -50646,7 +50650,7 @@
         <v>1794</v>
       </c>
       <c r="E798" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F798" s="6" t="s">
         <v>151</v>
@@ -50667,7 +50671,7 @@
         <v>1797</v>
       </c>
       <c r="E799" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F799" s="6" t="s">
         <v>151</v>
@@ -50688,7 +50692,7 @@
         <v>1800</v>
       </c>
       <c r="E800" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F800" s="6" t="s">
         <v>151</v>
@@ -50709,7 +50713,7 @@
         <v>3693</v>
       </c>
       <c r="E801" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F801" s="6" t="s">
         <v>151</v>
@@ -50730,7 +50734,7 @@
         <v>3696</v>
       </c>
       <c r="E802" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F802" s="6" t="s">
         <v>151</v>
@@ -50751,7 +50755,7 @@
         <v>3699</v>
       </c>
       <c r="E803" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F803" s="6" t="s">
         <v>151</v>
@@ -50772,7 +50776,7 @@
         <v>3702</v>
       </c>
       <c r="E804" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F804" s="6" t="s">
         <v>151</v>
@@ -50793,7 +50797,7 @@
         <v>3705</v>
       </c>
       <c r="E805" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F805" s="6" t="s">
         <v>151</v>
@@ -50814,7 +50818,7 @@
         <v>3708</v>
       </c>
       <c r="E806" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F806" s="6" t="s">
         <v>151</v>
@@ -50835,7 +50839,7 @@
         <v>3711</v>
       </c>
       <c r="E807" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F807" s="6" t="s">
         <v>151</v>
@@ -50856,7 +50860,7 @@
         <v>3714</v>
       </c>
       <c r="E808" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F808" s="6" t="s">
         <v>151</v>
@@ -50877,7 +50881,7 @@
         <v>3717</v>
       </c>
       <c r="E809" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F809" s="6" t="s">
         <v>151</v>
@@ -50898,7 +50902,7 @@
         <v>3720</v>
       </c>
       <c r="E810" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F810" s="6" t="s">
         <v>151</v>
@@ -50919,7 +50923,7 @@
         <v>3723</v>
       </c>
       <c r="E811" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F811" s="6" t="s">
         <v>151</v>
@@ -50940,7 +50944,7 @@
         <v>3726</v>
       </c>
       <c r="E812" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F812" s="6" t="s">
         <v>151</v>
@@ -50961,7 +50965,7 @@
         <v>3729</v>
       </c>
       <c r="E813" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F813" s="6" t="s">
         <v>151</v>
@@ -50982,7 +50986,7 @@
         <v>3732</v>
       </c>
       <c r="E814" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F814" s="6" t="s">
         <v>151</v>
@@ -51003,7 +51007,7 @@
         <v>3735</v>
       </c>
       <c r="E815" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F815" s="6" t="s">
         <v>151</v>
@@ -51024,7 +51028,7 @@
         <v>3738</v>
       </c>
       <c r="E816" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F816" s="6" t="s">
         <v>151</v>
@@ -51045,7 +51049,7 @@
         <v>3741</v>
       </c>
       <c r="E817" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F817" s="6" t="s">
         <v>151</v>
@@ -51066,7 +51070,7 @@
         <v>3744</v>
       </c>
       <c r="E818" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F818" s="6" t="s">
         <v>151</v>
@@ -51087,7 +51091,7 @@
         <v>3747</v>
       </c>
       <c r="E819" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F819" s="6" t="s">
         <v>151</v>
@@ -51108,7 +51112,7 @@
         <v>3750</v>
       </c>
       <c r="E820" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F820" s="6" t="s">
         <v>151</v>
@@ -51129,7 +51133,7 @@
         <v>3753</v>
       </c>
       <c r="E821" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F821" s="6" t="s">
         <v>151</v>
@@ -51150,7 +51154,7 @@
         <v>3756</v>
       </c>
       <c r="E822" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F822" s="6" t="s">
         <v>151</v>
@@ -51171,7 +51175,7 @@
         <v>3759</v>
       </c>
       <c r="E823" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F823" s="6" t="s">
         <v>151</v>
@@ -51192,7 +51196,7 @@
         <v>3762</v>
       </c>
       <c r="E824" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F824" s="6" t="s">
         <v>151</v>
@@ -51213,7 +51217,7 @@
         <v>3765</v>
       </c>
       <c r="E825" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F825" s="6" t="s">
         <v>151</v>
@@ -51234,7 +51238,7 @@
         <v>3768</v>
       </c>
       <c r="E826" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F826" s="6" t="s">
         <v>151</v>
@@ -51257,7 +51261,7 @@
         <v>3772</v>
       </c>
       <c r="E827" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F827" s="6" t="s">
         <v>151</v>
@@ -51280,7 +51284,7 @@
         <v>3775</v>
       </c>
       <c r="E828" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F828" s="6" t="s">
         <v>151</v>
@@ -51303,7 +51307,7 @@
         <v>3778</v>
       </c>
       <c r="E829" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F829" s="6" t="s">
         <v>151</v>
@@ -51326,7 +51330,7 @@
         <v>3781</v>
       </c>
       <c r="E830" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F830" s="6" t="s">
         <v>151</v>
@@ -51349,7 +51353,7 @@
         <v>3784</v>
       </c>
       <c r="E831" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F831" s="6" t="s">
         <v>151</v>
@@ -51372,7 +51376,7 @@
         <v>3787</v>
       </c>
       <c r="E832" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F832" s="6" t="s">
         <v>151</v>
@@ -51395,7 +51399,7 @@
         <v>3790</v>
       </c>
       <c r="E833" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F833" s="6" t="s">
         <v>151</v>
@@ -51418,7 +51422,7 @@
         <v>3793</v>
       </c>
       <c r="E834" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F834" s="6" t="s">
         <v>151</v>
@@ -51441,7 +51445,7 @@
         <v>3796</v>
       </c>
       <c r="E835" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F835" s="6" t="s">
         <v>151</v>
@@ -51464,7 +51468,7 @@
         <v>3799</v>
       </c>
       <c r="E836" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F836" s="6" t="s">
         <v>151</v>
@@ -51487,7 +51491,7 @@
         <v>3802</v>
       </c>
       <c r="E837" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F837" s="6" t="s">
         <v>151</v>
@@ -51510,7 +51514,7 @@
         <v>3805</v>
       </c>
       <c r="E838" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F838" s="6" t="s">
         <v>151</v>
@@ -51533,7 +51537,7 @@
         <v>3808</v>
       </c>
       <c r="E839" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F839" s="6" t="s">
         <v>151</v>
@@ -51556,7 +51560,7 @@
         <v>3679</v>
       </c>
       <c r="E840" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F840" s="6" t="s">
         <v>151</v>
@@ -51579,7 +51583,7 @@
         <v>3813</v>
       </c>
       <c r="E841" s="6" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F841" s="6" t="s">
         <v>151</v>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -13990,7 +13990,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -13998,38 +14013,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14056,9 +14039,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14072,31 +14062,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14110,16 +14094,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14130,6 +14115,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14160,19 +14160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14184,25 +14178,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14214,37 +14232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14262,13 +14256,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14280,13 +14322,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14298,49 +14340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14440,39 +14440,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -14490,8 +14457,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14513,26 +14530,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14542,10 +14542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14554,133 +14554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18484,8 +18484,8 @@
   <sheetPr/>
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I163" workbookViewId="0">
-      <selection activeCell="M179" sqref="M179"/>
+    <sheetView tabSelected="1" topLeftCell="E94" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="24300" windowHeight="10590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -13933,10 +13933,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -14011,21 +14011,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -14035,69 +14020,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14112,7 +14035,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14120,14 +14058,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14141,8 +14079,70 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14181,7 +14181,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14193,7 +14205,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14205,19 +14277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14229,37 +14289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14277,7 +14307,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14289,19 +14319,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14313,49 +14355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14454,22 +14454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14494,6 +14489,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14527,40 +14551,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14569,137 +14569,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14781,7 +14781,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -15122,7 +15121,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15143,7 +15142,7 @@
   <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J34" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15203,8 +15202,8 @@
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="23" t="s">
@@ -15249,8 +15248,8 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="6" t="s">
@@ -15295,8 +15294,8 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
@@ -15341,8 +15340,8 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="24" t="s">
@@ -15389,8 +15388,8 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="22" t="s">
@@ -15437,8 +15436,8 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="53"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
@@ -15483,8 +15482,8 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
@@ -15531,8 +15530,8 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
@@ -15579,8 +15578,8 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="27" t="s">
@@ -15629,8 +15628,8 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="22" t="s">
@@ -15676,11 +15675,11 @@
         <v>82</v>
       </c>
       <c r="Q11" s="6"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="22" t="s">
@@ -15833,7 +15832,7 @@
       <c r="Q14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="54" t="s">
+      <c r="S14" s="53" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="23" t="s">
@@ -17365,17 +17364,17 @@
         <v>268</v>
       </c>
       <c r="K49" s="6"/>
-      <c r="M49" s="51" t="s">
+      <c r="M49" s="6" t="s">
         <v>269</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O49" s="51" t="s">
+      <c r="O49" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="6" t="s">
@@ -17406,17 +17405,17 @@
       <c r="K50" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M50" s="51" t="s">
+      <c r="M50" s="6" t="s">
         <v>274</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="51" t="s">
+      <c r="O50" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="6" t="s">
@@ -17715,8 +17714,8 @@
       <c r="E58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
       <c r="M58" s="6" t="s">
         <v>298</v>
       </c>
@@ -17747,8 +17746,8 @@
       <c r="E59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
       <c r="M59" s="6" t="s">
         <v>45</v>
       </c>
@@ -17779,8 +17778,8 @@
       <c r="E60" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
       <c r="M60" s="24" t="s">
         <v>33</v>
       </c>
@@ -17796,8 +17795,8 @@
       <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="10:17">
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
       <c r="M61" s="27" t="s">
         <v>72</v>
       </c>
@@ -17815,8 +17814,8 @@
       </c>
     </row>
     <row r="62" spans="10:17">
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
       <c r="M62" s="22" t="s">
         <v>77</v>
       </c>
@@ -17845,8 +17844,8 @@
       <c r="E63" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
       <c r="M63" s="22" t="s">
         <v>83</v>
       </c>
@@ -18185,7 +18184,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="55" t="s">
+      <c r="A82" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="33" t="s">

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="10590" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -14039,14 +14039,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14068,6 +14068,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -14076,7 +14091,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14090,27 +14113,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -14137,6 +14144,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -14153,25 +14168,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -14202,55 +14202,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14268,13 +14250,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14286,7 +14334,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14304,31 +14370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14341,48 +14383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14493,6 +14493,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -14509,24 +14524,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14542,6 +14553,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14569,36 +14589,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14607,37 +14607,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14646,94 +14640,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18562,7 +18562,7 @@
   <dimension ref="A1:Q193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D169" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175:H175"/>
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -24722,7 +24722,7 @@
     </row>
     <row r="181" spans="6:17">
       <c r="F181" s="6" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="G181" s="6" t="s">
         <v>918</v>
@@ -24774,7 +24774,7 @@
     </row>
     <row r="183" spans="6:17">
       <c r="F183" s="6" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="G183" s="6" t="s">
         <v>918</v>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9090" activeTab="2"/>
+    <workbookView windowWidth="24000" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10959" uniqueCount="4403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10965" uniqueCount="4403">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -2785,6 +2785,15 @@
     <t>是否启用（0:禁用 , 1:启用）</t>
   </si>
   <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>操作人姓名</t>
+  </si>
+  <si>
+    <t>修改人姓名</t>
+  </si>
+  <si>
     <t>mp_staff_file 员工附件表</t>
   </si>
   <si>
@@ -2794,9 +2803,6 @@
     <t>bigint</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>附件名</t>
   </si>
   <si>
@@ -2810,12 +2816,6 @@
   </si>
   <si>
     <t>上传ID(调用平台上传功能后返回的ID)</t>
-  </si>
-  <si>
-    <t>操作人姓名</t>
-  </si>
-  <si>
-    <t>修改人姓名</t>
   </si>
   <si>
     <t>MP_YearStaffPrepare年度定岗定编</t>
@@ -13990,10 +13990,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -14068,7 +14068,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -14076,8 +14075,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14106,9 +14113,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14139,37 +14152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14191,13 +14174,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -14232,7 +14232,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14244,19 +14304,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14268,13 +14370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14292,49 +14400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14346,78 +14412,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -14512,23 +14512,25 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14544,54 +14546,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14619,16 +14573,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14637,137 +14626,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14842,13 +14831,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -15198,7 +15181,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15279,8 +15262,8 @@
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="23" t="s">
@@ -15325,8 +15308,8 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="6" t="s">
@@ -15371,8 +15354,8 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
@@ -15417,8 +15400,8 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="24" t="s">
@@ -15465,8 +15448,8 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="22" t="s">
@@ -15513,8 +15496,8 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
@@ -15559,8 +15542,8 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
@@ -15607,8 +15590,8 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
@@ -15655,8 +15638,8 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="27" t="s">
@@ -15705,8 +15688,8 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="22" t="s">
@@ -15752,11 +15735,11 @@
         <v>82</v>
       </c>
       <c r="Q11" s="6"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="22" t="s">
@@ -15909,7 +15892,7 @@
       <c r="Q14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="58" t="s">
+      <c r="S14" s="56" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="23" t="s">
@@ -16089,19 +16072,19 @@
       <c r="Q18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="51" t="s">
+      <c r="S18" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="T18" s="51" t="s">
+      <c r="T18" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="51" t="s">
+      <c r="U18" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="51" t="s">
+      <c r="V18" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="W18" s="51" t="s">
+      <c r="W18" s="49" t="s">
         <v>106</v>
       </c>
     </row>
@@ -16700,19 +16683,19 @@
         <v>111</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="51" t="s">
+      <c r="H32" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="51" t="s">
+      <c r="K32" s="49" t="s">
         <v>191</v>
       </c>
       <c r="M32" s="6" t="s">
@@ -16827,8 +16810,8 @@
       <c r="C35" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52" t="s">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
         <v>209</v>
       </c>
       <c r="G35" s="33" t="s">
@@ -17032,7 +17015,7 @@
       <c r="C40" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="51" t="s">
         <v>209</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -17382,7 +17365,7 @@
       <c r="D48" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="52" t="s">
         <v>258</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -17525,16 +17508,16 @@
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="53" t="s">
         <v>281</v>
       </c>
       <c r="E52" s="14" t="s">
@@ -17568,16 +17551,16 @@
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="53" t="s">
         <v>286</v>
       </c>
       <c r="E53" s="14" t="s">
@@ -17791,8 +17774,8 @@
       <c r="E58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
       <c r="M58" s="6" t="s">
         <v>298</v>
       </c>
@@ -17823,8 +17806,8 @@
       <c r="E59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
       <c r="M59" s="6" t="s">
         <v>45</v>
       </c>
@@ -17855,8 +17838,8 @@
       <c r="E60" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
       <c r="M60" s="24" t="s">
         <v>33</v>
       </c>
@@ -17872,8 +17855,8 @@
       <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="10:17">
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
       <c r="M61" s="27" t="s">
         <v>72</v>
       </c>
@@ -17891,8 +17874,8 @@
       </c>
     </row>
     <row r="62" spans="10:17">
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
       <c r="M62" s="22" t="s">
         <v>77</v>
       </c>
@@ -17921,8 +17904,8 @@
       <c r="E63" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
       <c r="M63" s="22" t="s">
         <v>83</v>
       </c>
@@ -18261,7 +18244,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="59" t="s">
+      <c r="A82" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="33" t="s">
@@ -18598,8 +18581,8 @@
   <sheetPr/>
   <dimension ref="A1:Q215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E175" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197:G197"/>
+    <sheetView tabSelected="1" topLeftCell="E181" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192:J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18611,7 +18594,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="29.375" customWidth="1"/>
+    <col min="10" max="10" width="40.125" customWidth="1"/>
     <col min="11" max="11" width="16.125" customWidth="1"/>
     <col min="13" max="13" width="18.5" customWidth="1"/>
     <col min="14" max="14" width="13.75" customWidth="1"/>
@@ -25045,26 +25028,42 @@
       </c>
     </row>
     <row r="192" spans="6:10">
-      <c r="F192" s="22"/>
-      <c r="G192" s="22"/>
-      <c r="H192" s="22"/>
+      <c r="F192" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G192" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="H192" s="22">
+        <v>255</v>
+      </c>
       <c r="I192" s="22"/>
-      <c r="J192" s="46"/>
+      <c r="J192" s="46" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="193" spans="6:10">
-      <c r="F193" s="22"/>
-      <c r="G193" s="22"/>
-      <c r="H193" s="22"/>
+      <c r="F193" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G193" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="H193" s="22">
+        <v>255</v>
+      </c>
       <c r="I193" s="22"/>
-      <c r="J193" s="50"/>
+      <c r="J193" s="46" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="197" spans="6:10">
-      <c r="F197" s="47" t="s">
-        <v>920</v>
-      </c>
-      <c r="G197" s="48"/>
-      <c r="H197" s="49" t="s">
-        <v>921</v>
+      <c r="F197" s="28" t="s">
+        <v>923</v>
+      </c>
+      <c r="G197" s="29"/>
+      <c r="H197" s="47" t="s">
+        <v>924</v>
       </c>
       <c r="I197" s="21" t="s">
         <v>3</v>
@@ -25078,7 +25077,7 @@
         <v>8</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H198" s="6">
         <v>20</v>
@@ -25093,14 +25092,14 @@
         <v>291</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H199" s="6">
         <v>255</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="40" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="200" spans="6:10">
@@ -25108,7 +25107,7 @@
         <v>435</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H200" s="6">
         <v>20</v>
@@ -25123,7 +25122,7 @@
         <v>72</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H201" s="6">
         <v>20</v>
@@ -25138,7 +25137,7 @@
         <v>207</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H202" s="6">
         <v>20</v>
@@ -25168,7 +25167,7 @@
         <v>214</v>
       </c>
       <c r="G204" s="23" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H204" s="22">
         <v>20</v>
@@ -25198,7 +25197,7 @@
         <v>77</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H206" s="6">
         <v>255</v>
@@ -25213,7 +25212,7 @@
         <v>83</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H207" s="6">
         <v>255</v>
@@ -25228,7 +25227,7 @@
         <v>85</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H208" s="6">
         <v>255</v>
@@ -25243,7 +25242,7 @@
         <v>88</v>
       </c>
       <c r="G209" s="23" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H209" s="27">
         <v>255</v>
@@ -25258,7 +25257,7 @@
         <v>90</v>
       </c>
       <c r="G210" s="22" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H210" s="22">
         <v>255</v>
@@ -25285,32 +25284,32 @@
     </row>
     <row r="212" spans="6:10">
       <c r="F212" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="G212" s="22" t="s">
         <v>925</v>
-      </c>
-      <c r="G212" s="22" t="s">
-        <v>922</v>
       </c>
       <c r="H212" s="22">
         <v>20</v>
       </c>
       <c r="I212" s="22"/>
-      <c r="J212" s="46" t="s">
-        <v>926</v>
+      <c r="J212" s="48" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="213" spans="6:10">
       <c r="F213" s="22" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="G213" s="22" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H213" s="22">
         <v>20</v>
       </c>
       <c r="I213" s="22"/>
-      <c r="J213" s="50" t="s">
-        <v>928</v>
+      <c r="J213" s="48" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="214" spans="6:10">
@@ -25318,14 +25317,14 @@
         <v>274</v>
       </c>
       <c r="G214" s="22" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H214" s="22">
         <v>255</v>
       </c>
       <c r="I214" s="22"/>
-      <c r="J214" t="s">
-        <v>929</v>
+      <c r="J214" s="46" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="215" spans="6:10">
@@ -25333,14 +25332,14 @@
         <v>269</v>
       </c>
       <c r="G215" s="22" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H215" s="22">
         <v>255</v>
       </c>
       <c r="I215" s="22"/>
-      <c r="J215" t="s">
-        <v>930</v>
+      <c r="J215" s="46" t="s">
+        <v>922</v>
       </c>
     </row>
   </sheetData>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -2842,10 +2842,10 @@
     <t>员工附件2级分类ID （关联员工二级分类表）</t>
   </si>
   <si>
-    <t>UPLOAD_ID</t>
-  </si>
-  <si>
-    <t>上传ID(调用平台上传功能后返回的ID)</t>
+    <t>FILE_ID</t>
+  </si>
+  <si>
+    <t>上传文件ID(调用平台上传功能后返回的ID)</t>
   </si>
   <si>
     <t>MP_YearStaffPrepare年度定岗定编</t>
@@ -14020,9 +14020,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -14091,16 +14091,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14114,8 +14107,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14130,7 +14162,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -14138,14 +14178,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14153,23 +14200,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14184,52 +14222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -14262,36 +14262,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -14304,7 +14274,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14316,7 +14370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14334,43 +14400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14382,67 +14430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14572,13 +14572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14601,21 +14605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -14627,21 +14616,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14663,9 +14637,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -14675,10 +14675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14687,137 +14687,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14904,10 +14904,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -15255,7 +15251,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15336,8 +15332,8 @@
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="23" t="s">
@@ -15382,8 +15378,8 @@
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="6" t="s">
@@ -15428,8 +15424,8 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="6" t="s">
@@ -15474,8 +15470,8 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="24" t="s">
@@ -15522,8 +15518,8 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="22" t="s">
@@ -15570,8 +15566,8 @@
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="6" t="s">
@@ -15616,8 +15612,8 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="6" t="s">
@@ -15664,8 +15660,8 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="6" t="s">
@@ -15712,8 +15708,8 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="27" t="s">
@@ -15762,8 +15758,8 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="22" t="s">
@@ -15809,11 +15805,11 @@
         <v>82</v>
       </c>
       <c r="Q11" s="6"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="22" t="s">
@@ -15966,7 +15962,7 @@
       <c r="Q14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S14" s="61" t="s">
+      <c r="S14" s="59" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="23" t="s">
@@ -16146,19 +16142,19 @@
       <c r="Q18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="54" t="s">
+      <c r="S18" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="T18" s="54" t="s">
+      <c r="T18" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="U18" s="54" t="s">
+      <c r="U18" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="54" t="s">
+      <c r="V18" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="W18" s="54" t="s">
+      <c r="W18" s="52" t="s">
         <v>106</v>
       </c>
     </row>
@@ -16757,19 +16753,19 @@
         <v>111</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="54" t="s">
+      <c r="H32" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="I32" s="54" t="s">
+      <c r="I32" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="54" t="s">
+      <c r="K32" s="52" t="s">
         <v>191</v>
       </c>
       <c r="M32" s="6" t="s">
@@ -16884,8 +16880,8 @@
       <c r="C35" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="53" t="s">
         <v>209</v>
       </c>
       <c r="G35" s="33" t="s">
@@ -17089,7 +17085,7 @@
       <c r="C40" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="54" t="s">
         <v>209</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -17439,7 +17435,7 @@
       <c r="D48" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="55" t="s">
         <v>258</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -17582,16 +17578,16 @@
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="56" t="s">
         <v>281</v>
       </c>
       <c r="E52" s="14" t="s">
@@ -17625,16 +17621,16 @@
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="D53" s="56" t="s">
         <v>286</v>
       </c>
       <c r="E53" s="14" t="s">
@@ -17848,8 +17844,8 @@
       <c r="E58" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
       <c r="M58" s="6" t="s">
         <v>298</v>
       </c>
@@ -17880,8 +17876,8 @@
       <c r="E59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
       <c r="M59" s="6" t="s">
         <v>45</v>
       </c>
@@ -17912,8 +17908,8 @@
       <c r="E60" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
       <c r="M60" s="24" t="s">
         <v>33</v>
       </c>
@@ -17929,8 +17925,8 @@
       <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="10:17">
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
       <c r="M61" s="27" t="s">
         <v>72</v>
       </c>
@@ -17948,8 +17944,8 @@
       </c>
     </row>
     <row r="62" spans="10:17">
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
       <c r="M62" s="22" t="s">
         <v>77</v>
       </c>
@@ -17978,8 +17974,8 @@
       <c r="E63" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
       <c r="M63" s="22" t="s">
         <v>83</v>
       </c>
@@ -18318,7 +18314,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B82" s="33" t="s">
@@ -18655,8 +18651,8 @@
   <sheetPr/>
   <dimension ref="A1:Q216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H187" workbookViewId="0">
-      <selection activeCell="N215" sqref="N215"/>
+    <sheetView tabSelected="1" topLeftCell="E187" workbookViewId="0">
+      <selection activeCell="J213" sqref="J213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -25150,13 +25146,13 @@
       <c r="H196" s="43"/>
       <c r="I196" s="43"/>
       <c r="J196" s="50"/>
-      <c r="M196" s="52" t="s">
+      <c r="M196" s="21" t="s">
         <v>927</v>
       </c>
-      <c r="N196" s="52"/>
-      <c r="O196" s="52"/>
-      <c r="P196" s="52"/>
-      <c r="Q196" s="52"/>
+      <c r="N196" s="21"/>
+      <c r="O196" s="21"/>
+      <c r="P196" s="21"/>
+      <c r="Q196" s="21"/>
     </row>
     <row r="197" spans="6:17">
       <c r="F197" s="44" t="s">
@@ -25695,17 +25691,17 @@
       </c>
     </row>
     <row r="216" spans="13:17">
-      <c r="M216" s="53" t="s">
+      <c r="M216" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="N216" s="53" t="s">
+      <c r="N216" s="49" t="s">
         <v>923</v>
       </c>
-      <c r="O216" s="53">
+      <c r="O216" s="49">
         <v>255</v>
       </c>
-      <c r="P216" s="53"/>
-      <c r="Q216" s="53" t="s">
+      <c r="P216" s="49"/>
+      <c r="Q216" s="49" t="s">
         <v>91</v>
       </c>
     </row>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="9840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="4477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="4479">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -14342,6 +14342,14 @@
   </si>
   <si>
     <t>字典：GWZZLX</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE_POST_TYPE</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_VIRTUAL</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -14994,7 +15002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -15023,7 +15031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -18402,8 +18410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O220" sqref="O220"/>
+    <sheetView tabSelected="1" topLeftCell="K84" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -22286,7 +22294,7 @@
         <v>792</v>
       </c>
       <c r="M97" s="14" t="s">
-        <v>217</v>
+        <v>4478</v>
       </c>
       <c r="N97" s="14" t="s">
         <v>54</v>
@@ -22314,7 +22322,7 @@
         <v>11</v>
       </c>
       <c r="M98" s="34" t="s">
-        <v>808</v>
+        <v>4477</v>
       </c>
       <c r="N98" s="41" t="s">
         <v>13</v>
@@ -26064,17 +26072,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="G43:I43"/>
     <mergeCell ref="M226:Q226"/>
     <mergeCell ref="M196:Q196"/>
     <mergeCell ref="M139:O139"/>
     <mergeCell ref="M172:O172"/>
     <mergeCell ref="F174:J174"/>
     <mergeCell ref="F196:J196"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="4477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="4478">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -14347,6 +14347,10 @@
   </si>
   <si>
     <t>字典：GWZZLX</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -14701,6 +14705,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14731,9 +14738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15040,8 +15044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E47" sqref="A47:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15063,44 +15067,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
       <c r="V1" s="52"/>
       <c r="W1" s="52"/>
     </row>
@@ -15673,11 +15677,11 @@
       <c r="Q13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="58" t="s">
+      <c r="S13" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="21" t="s">
         <v>3</v>
       </c>
@@ -15943,11 +15947,11 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="21" t="s">
         <v>3</v>
       </c>
@@ -16012,11 +16016,11 @@
         <v>115</v>
       </c>
       <c r="E22" s="33"/>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="30" t="s">
         <v>3</v>
       </c>
@@ -16139,11 +16143,11 @@
       <c r="E25" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="21" t="s">
         <v>3</v>
       </c>
@@ -16180,19 +16184,19 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="58" t="s">
         <v>138</v>
       </c>
       <c r="G26" s="23" t="s">
@@ -16238,19 +16242,19 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="58" t="s">
         <v>145</v>
       </c>
       <c r="G27" s="33" t="s">
@@ -16294,19 +16298,19 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="58" t="s">
         <v>153</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -16352,19 +16356,19 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="58" t="s">
         <v>164</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -16597,19 +16601,19 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="69" t="s">
+      <c r="E34" s="59" t="s">
         <v>4476</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -17068,7 +17072,7 @@
         <v>240</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>4</v>
+        <v>4477</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>109</v>
@@ -17147,19 +17151,19 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="E47" s="68" t="s">
+      <c r="E47" s="58" t="s">
         <v>250</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -18442,33 +18446,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
@@ -19539,11 +19543,11 @@
       <c r="K27" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="61"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="30" t="s">
         <v>3</v>
       </c>
@@ -20117,11 +20121,11 @@
         <v>558</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="G43" s="59" t="s">
+      <c r="G43" s="62" t="s">
         <v>559</v>
       </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="61"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
       <c r="J43" s="30" t="s">
         <v>3</v>
       </c>
@@ -23612,11 +23616,11 @@
       <c r="K139" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="M139" s="62" t="s">
+      <c r="M139" s="65" t="s">
         <v>870</v>
       </c>
-      <c r="N139" s="63"/>
-      <c r="O139" s="64"/>
+      <c r="N139" s="66"/>
+      <c r="O139" s="67"/>
       <c r="P139" s="21" t="s">
         <v>3</v>
       </c>
@@ -24463,11 +24467,11 @@
       </c>
     </row>
     <row r="172" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="M172" s="62" t="s">
+      <c r="M172" s="65" t="s">
         <v>907</v>
       </c>
-      <c r="N172" s="63"/>
-      <c r="O172" s="64"/>
+      <c r="N172" s="66"/>
+      <c r="O172" s="67"/>
       <c r="P172" s="21" t="s">
         <v>3</v>
       </c>
@@ -24491,13 +24495,13 @@
       <c r="Q173" s="6"/>
     </row>
     <row r="174" spans="6:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="F174" s="65" t="s">
+      <c r="F174" s="68" t="s">
         <v>908</v>
       </c>
-      <c r="G174" s="66"/>
-      <c r="H174" s="66"/>
-      <c r="I174" s="66"/>
-      <c r="J174" s="67"/>
+      <c r="G174" s="69"/>
+      <c r="H174" s="69"/>
+      <c r="I174" s="69"/>
+      <c r="J174" s="70"/>
       <c r="M174" s="6" t="s">
         <v>909</v>
       </c>
@@ -24982,20 +24986,20 @@
       </c>
     </row>
     <row r="196" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F196" s="65" t="s">
+      <c r="F196" s="68" t="s">
         <v>932</v>
       </c>
-      <c r="G196" s="66"/>
-      <c r="H196" s="66"/>
-      <c r="I196" s="66"/>
-      <c r="J196" s="67"/>
-      <c r="M196" s="58" t="s">
+      <c r="G196" s="69"/>
+      <c r="H196" s="69"/>
+      <c r="I196" s="69"/>
+      <c r="J196" s="70"/>
+      <c r="M196" s="61" t="s">
         <v>978</v>
       </c>
-      <c r="N196" s="58"/>
-      <c r="O196" s="58"/>
-      <c r="P196" s="58"/>
-      <c r="Q196" s="58"/>
+      <c r="N196" s="61"/>
+      <c r="O196" s="61"/>
+      <c r="P196" s="61"/>
+      <c r="Q196" s="61"/>
     </row>
     <row r="197" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F197" s="42" t="s">
@@ -25604,13 +25608,13 @@
       </c>
     </row>
     <row r="226" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="M226" s="58" t="s">
+      <c r="M226" s="61" t="s">
         <v>942</v>
       </c>
-      <c r="N226" s="58"/>
-      <c r="O226" s="58"/>
-      <c r="P226" s="58"/>
-      <c r="Q226" s="58"/>
+      <c r="N226" s="61"/>
+      <c r="O226" s="61"/>
+      <c r="P226" s="61"/>
+      <c r="Q226" s="61"/>
     </row>
     <row r="227" spans="13:17" x14ac:dyDescent="0.2">
       <c r="M227" s="42" t="s">
@@ -26081,17 +26085,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="G43:I43"/>
     <mergeCell ref="M226:Q226"/>
     <mergeCell ref="M196:Q196"/>
     <mergeCell ref="M139:O139"/>
     <mergeCell ref="M172:O172"/>
     <mergeCell ref="F174:J174"/>
     <mergeCell ref="F196:J196"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="G43:I43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26123,33 +26127,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>987</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>988</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>989</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
@@ -27048,11 +27052,11 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="61" t="s">
         <v>1020</v>
       </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="21" t="s">
         <v>3</v>
       </c>
@@ -27155,11 +27159,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="61" t="s">
         <v>1025</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="21" t="s">
         <v>3</v>
       </c>
@@ -27281,11 +27285,11 @@
       <c r="E36" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="G36" s="58" t="s">
+      <c r="G36" s="61" t="s">
         <v>1036</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="21" t="s">
         <v>3</v>
       </c>
@@ -28598,33 +28602,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>1097</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>1098</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>1099</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
@@ -30164,11 +30168,11 @@
       <c r="E40" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="62" t="s">
         <v>1262</v>
       </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
       <c r="J40" s="30" t="s">
         <v>3</v>
       </c>
@@ -30700,11 +30704,11 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="61" t="s">
         <v>1301</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="21" t="s">
         <v>3</v>
       </c>
@@ -31434,11 +31438,11 @@
       <c r="K78" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="M78" s="58" t="s">
+      <c r="M78" s="61" t="s">
         <v>1331</v>
       </c>
-      <c r="N78" s="58"/>
-      <c r="O78" s="58"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
       <c r="P78" s="21" t="s">
         <v>3</v>
       </c>
@@ -32209,11 +32213,11 @@
       <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="62" t="s">
         <v>1377</v>
       </c>
-      <c r="B101" s="60"/>
-      <c r="C101" s="61"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="21" t="s">
         <v>3</v>
       </c>
@@ -33459,11 +33463,11 @@
         <v>1505</v>
       </c>
       <c r="K132" s="6"/>
-      <c r="M132" s="59" t="s">
+      <c r="M132" s="62" t="s">
         <v>1506</v>
       </c>
-      <c r="N132" s="60"/>
-      <c r="O132" s="61"/>
+      <c r="N132" s="63"/>
+      <c r="O132" s="64"/>
       <c r="P132" s="21" t="s">
         <v>3</v>
       </c>
@@ -33960,11 +33964,11 @@
       <c r="Q145" s="6"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="59" t="s">
+      <c r="A146" s="62" t="s">
         <v>1556</v>
       </c>
-      <c r="B146" s="60"/>
-      <c r="C146" s="61"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="21" t="s">
         <v>3</v>
       </c>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="9840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="9840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="规则必看！！！" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="4477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11167" uniqueCount="4478">
   <si>
     <t>表格中黄色字体为从旧人力中同步过来的数据字段，新建表中要保留，用于维护表之间的关联关系，所以实体类中不需要出现此字段</t>
   </si>
@@ -12385,9 +12385,6 @@
   </si>
   <si>
     <t>Code2018012314553265748</t>
-  </si>
-  <si>
-    <t>ZZJB</t>
   </si>
   <si>
     <t>Code2018012314554756722</t>
@@ -14347,6 +14344,14 @@
   </si>
   <si>
     <t>字典：GWZZLX</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZZCJ</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织层级</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -14701,6 +14706,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14731,9 +14739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15040,7 +15045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E47" sqref="A47:E47"/>
     </sheetView>
   </sheetViews>
@@ -15063,44 +15068,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
       <c r="V1" s="52"/>
       <c r="W1" s="52"/>
     </row>
@@ -15673,11 +15678,11 @@
       <c r="Q13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="58" t="s">
+      <c r="S13" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="21" t="s">
         <v>3</v>
       </c>
@@ -15943,11 +15948,11 @@
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="21" t="s">
         <v>3</v>
       </c>
@@ -16012,11 +16017,11 @@
         <v>115</v>
       </c>
       <c r="E22" s="33"/>
-      <c r="M22" s="59" t="s">
+      <c r="M22" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="30" t="s">
         <v>3</v>
       </c>
@@ -16139,11 +16144,11 @@
       <c r="E25" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="21" t="s">
         <v>3</v>
       </c>
@@ -16180,19 +16185,19 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="58" t="s">
         <v>138</v>
       </c>
       <c r="G26" s="23" t="s">
@@ -16238,19 +16243,19 @@
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="58" t="s">
         <v>145</v>
       </c>
       <c r="G27" s="33" t="s">
@@ -16294,19 +16299,19 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="68" t="s">
+      <c r="E28" s="58" t="s">
         <v>153</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -16352,19 +16357,19 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B29" s="68" t="s">
+      <c r="B29" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="58" t="s">
         <v>164</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -16597,20 +16602,20 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="69" t="s">
-        <v>4476</v>
+      <c r="E34" s="59" t="s">
+        <v>4475</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>203</v>
@@ -17147,19 +17152,19 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="E47" s="68" t="s">
+      <c r="E47" s="58" t="s">
         <v>250</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -18442,33 +18447,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
@@ -19185,10 +19190,10 @@
         <v>13</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="J18" s="57" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="K18" s="6"/>
       <c r="M18" s="22" t="s">
@@ -19265,13 +19270,13 @@
       </c>
       <c r="E20" s="6"/>
       <c r="G20" s="57" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -19312,7 +19317,7 @@
         <v>13</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>76</v>
@@ -19396,13 +19401,13 @@
         <v>475</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -19539,11 +19544,11 @@
       <c r="K27" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="61"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="30" t="s">
         <v>3</v>
       </c>
@@ -20117,11 +20122,11 @@
         <v>558</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="G43" s="59" t="s">
+      <c r="G43" s="62" t="s">
         <v>559</v>
       </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="61"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
       <c r="J43" s="30" t="s">
         <v>3</v>
       </c>
@@ -20508,13 +20513,13 @@
       </c>
       <c r="E53" s="6"/>
       <c r="G53" s="57" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I53" s="57" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -20637,13 +20642,13 @@
         <v>610</v>
       </c>
       <c r="G56" s="57" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>13</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="J56" s="12"/>
       <c r="K56" s="33"/>
@@ -23612,11 +23617,11 @@
       <c r="K139" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="M139" s="62" t="s">
+      <c r="M139" s="65" t="s">
         <v>870</v>
       </c>
-      <c r="N139" s="63"/>
-      <c r="O139" s="64"/>
+      <c r="N139" s="66"/>
+      <c r="O139" s="67"/>
       <c r="P139" s="21" t="s">
         <v>3</v>
       </c>
@@ -24463,11 +24468,11 @@
       </c>
     </row>
     <row r="172" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="M172" s="62" t="s">
+      <c r="M172" s="65" t="s">
         <v>907</v>
       </c>
-      <c r="N172" s="63"/>
-      <c r="O172" s="64"/>
+      <c r="N172" s="66"/>
+      <c r="O172" s="67"/>
       <c r="P172" s="21" t="s">
         <v>3</v>
       </c>
@@ -24491,13 +24496,13 @@
       <c r="Q173" s="6"/>
     </row>
     <row r="174" spans="6:17" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="F174" s="65" t="s">
+      <c r="F174" s="68" t="s">
         <v>908</v>
       </c>
-      <c r="G174" s="66"/>
-      <c r="H174" s="66"/>
-      <c r="I174" s="66"/>
-      <c r="J174" s="67"/>
+      <c r="G174" s="69"/>
+      <c r="H174" s="69"/>
+      <c r="I174" s="69"/>
+      <c r="J174" s="70"/>
       <c r="M174" s="6" t="s">
         <v>909</v>
       </c>
@@ -24626,7 +24631,7 @@
         <v>709</v>
       </c>
       <c r="N179" s="23" t="s">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="O179" s="22" t="s">
         <v>700</v>
@@ -24982,20 +24987,20 @@
       </c>
     </row>
     <row r="196" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F196" s="65" t="s">
+      <c r="F196" s="68" t="s">
         <v>932</v>
       </c>
-      <c r="G196" s="66"/>
-      <c r="H196" s="66"/>
-      <c r="I196" s="66"/>
-      <c r="J196" s="67"/>
-      <c r="M196" s="58" t="s">
+      <c r="G196" s="69"/>
+      <c r="H196" s="69"/>
+      <c r="I196" s="69"/>
+      <c r="J196" s="70"/>
+      <c r="M196" s="61" t="s">
         <v>978</v>
       </c>
-      <c r="N196" s="58"/>
-      <c r="O196" s="58"/>
-      <c r="P196" s="58"/>
-      <c r="Q196" s="58"/>
+      <c r="N196" s="61"/>
+      <c r="O196" s="61"/>
+      <c r="P196" s="61"/>
+      <c r="Q196" s="61"/>
     </row>
     <row r="197" spans="6:17" x14ac:dyDescent="0.2">
       <c r="F197" s="42" t="s">
@@ -25252,7 +25257,7 @@
         <v>81</v>
       </c>
       <c r="M205" s="57" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="N205" s="6" t="s">
         <v>929</v>
@@ -25262,7 +25267,7 @@
       </c>
       <c r="P205" s="6"/>
       <c r="Q205" s="57" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="206" spans="6:17" x14ac:dyDescent="0.2">
@@ -25308,17 +25313,17 @@
         <v>84</v>
       </c>
       <c r="M207" s="57" t="s">
+        <v>4472</v>
+      </c>
+      <c r="N207" s="57" t="s">
         <v>4473</v>
-      </c>
-      <c r="N207" s="57" t="s">
-        <v>4474</v>
       </c>
       <c r="O207" s="6">
         <v>50</v>
       </c>
       <c r="P207" s="6"/>
       <c r="Q207" s="57" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="208" spans="6:17" x14ac:dyDescent="0.2">
@@ -25336,7 +25341,7 @@
         <v>86</v>
       </c>
       <c r="M208" s="57" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="N208" s="6" t="s">
         <v>929</v>
@@ -25346,7 +25351,7 @@
       </c>
       <c r="P208" s="6"/>
       <c r="Q208" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="209" spans="6:17" x14ac:dyDescent="0.2">
@@ -25374,7 +25379,7 @@
       </c>
       <c r="P209" s="6"/>
       <c r="Q209" s="57" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="210" spans="6:17" x14ac:dyDescent="0.2">
@@ -25392,7 +25397,7 @@
         <v>91</v>
       </c>
       <c r="M210" s="57" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="N210" s="6" t="s">
         <v>929</v>
@@ -25402,7 +25407,7 @@
       </c>
       <c r="P210" s="6"/>
       <c r="Q210" s="57" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="211" spans="6:17" x14ac:dyDescent="0.2">
@@ -25423,7 +25428,7 @@
         <v>434</v>
       </c>
       <c r="N211" s="57" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="O211" s="6">
         <v>50</v>
@@ -25604,13 +25609,13 @@
       </c>
     </row>
     <row r="226" spans="13:17" x14ac:dyDescent="0.2">
-      <c r="M226" s="58" t="s">
+      <c r="M226" s="61" t="s">
         <v>942</v>
       </c>
-      <c r="N226" s="58"/>
-      <c r="O226" s="58"/>
-      <c r="P226" s="58"/>
-      <c r="Q226" s="58"/>
+      <c r="N226" s="61"/>
+      <c r="O226" s="61"/>
+      <c r="P226" s="61"/>
+      <c r="Q226" s="61"/>
     </row>
     <row r="227" spans="13:17" x14ac:dyDescent="0.2">
       <c r="M227" s="42" t="s">
@@ -26123,33 +26128,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>987</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>988</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>989</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
@@ -27048,11 +27053,11 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="61" t="s">
         <v>1020</v>
       </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="21" t="s">
         <v>3</v>
       </c>
@@ -27155,11 +27160,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="61" t="s">
         <v>1025</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="21" t="s">
         <v>3</v>
       </c>
@@ -27281,11 +27286,11 @@
       <c r="E36" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="G36" s="58" t="s">
+      <c r="G36" s="61" t="s">
         <v>1036</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="21" t="s">
         <v>3</v>
       </c>
@@ -28598,33 +28603,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>1097</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="61" t="s">
         <v>1098</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="61" t="s">
         <v>1099</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="21" t="s">
         <v>3</v>
       </c>
@@ -30164,11 +30169,11 @@
       <c r="E40" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="62" t="s">
         <v>1262</v>
       </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="61"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
       <c r="J40" s="30" t="s">
         <v>3</v>
       </c>
@@ -30700,11 +30705,11 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="61" t="s">
         <v>1301</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="21" t="s">
         <v>3</v>
       </c>
@@ -31434,11 +31439,11 @@
       <c r="K78" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="M78" s="58" t="s">
+      <c r="M78" s="61" t="s">
         <v>1331</v>
       </c>
-      <c r="N78" s="58"/>
-      <c r="O78" s="58"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
       <c r="P78" s="21" t="s">
         <v>3</v>
       </c>
@@ -32209,11 +32214,11 @@
       <c r="Q100" s="6"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="62" t="s">
         <v>1377</v>
       </c>
-      <c r="B101" s="60"/>
-      <c r="C101" s="61"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="21" t="s">
         <v>3</v>
       </c>
@@ -33459,11 +33464,11 @@
         <v>1505</v>
       </c>
       <c r="K132" s="6"/>
-      <c r="M132" s="59" t="s">
+      <c r="M132" s="62" t="s">
         <v>1506</v>
       </c>
-      <c r="N132" s="60"/>
-      <c r="O132" s="61"/>
+      <c r="N132" s="63"/>
+      <c r="O132" s="64"/>
       <c r="P132" s="21" t="s">
         <v>3</v>
       </c>
@@ -33960,11 +33965,11 @@
       <c r="Q145" s="6"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="59" t="s">
+      <c r="A146" s="62" t="s">
         <v>1556</v>
       </c>
-      <c r="B146" s="60"/>
-      <c r="C146" s="61"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="64"/>
       <c r="D146" s="21" t="s">
         <v>3</v>
       </c>
@@ -35209,8 +35214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I931"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+    <sheetView tabSelected="1" topLeftCell="A914" workbookViewId="0">
+      <selection activeCell="F934" sqref="F934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -54579,10 +54584,10 @@
         <v>950</v>
       </c>
       <c r="E920" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F920" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G920" s="6">
         <v>1</v>
@@ -54591,19 +54596,19 @@
     </row>
     <row r="921" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B921" s="6" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
       <c r="C921" s="6">
         <v>2</v>
       </c>
       <c r="D921" s="6" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
       <c r="E921" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F921" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G921" s="6">
         <v>2</v>
@@ -54612,7 +54617,7 @@
     </row>
     <row r="922" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B922" s="6" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
       <c r="C922" s="6">
         <v>8</v>
@@ -54621,10 +54626,10 @@
         <v>2613</v>
       </c>
       <c r="E922" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F922" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G922" s="6">
         <v>3</v>
@@ -54633,7 +54638,7 @@
     </row>
     <row r="923" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B923" s="6" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
       <c r="C923" s="6">
         <v>3</v>
@@ -54642,10 +54647,10 @@
         <v>2508</v>
       </c>
       <c r="E923" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F923" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G923" s="6">
         <v>4</v>
@@ -54654,7 +54659,7 @@
     </row>
     <row r="924" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B924" s="6" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
       <c r="C924" s="6">
         <v>10</v>
@@ -54663,10 +54668,10 @@
         <v>2616</v>
       </c>
       <c r="E924" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F924" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G924" s="6">
         <v>5</v>
@@ -54675,19 +54680,19 @@
     </row>
     <row r="925" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B925" s="6" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
       <c r="C925" s="6">
         <v>11</v>
       </c>
       <c r="D925" s="6" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="E925" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F925" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G925" s="6">
         <v>6</v>
@@ -54696,19 +54701,19 @@
     </row>
     <row r="926" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B926" s="6" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="C926" s="6">
         <v>4</v>
       </c>
       <c r="D926" s="6" t="s">
-        <v>4128</v>
+        <v>4127</v>
       </c>
       <c r="E926" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F926" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G926" s="6">
         <v>7</v>
@@ -54717,19 +54722,19 @@
     </row>
     <row r="927" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B927" s="6" t="s">
-        <v>4129</v>
+        <v>4128</v>
       </c>
       <c r="C927" s="6">
         <v>9</v>
       </c>
       <c r="D927" s="6" t="s">
-        <v>4130</v>
+        <v>4129</v>
       </c>
       <c r="E927" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F927" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G927" s="6">
         <v>8</v>
@@ -54738,7 +54743,7 @@
     </row>
     <row r="928" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B928" s="6" t="s">
-        <v>4131</v>
+        <v>4130</v>
       </c>
       <c r="C928" s="6">
         <v>5</v>
@@ -54747,10 +54752,10 @@
         <v>2606</v>
       </c>
       <c r="E928" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F928" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G928" s="6">
         <v>9</v>
@@ -54759,7 +54764,7 @@
     </row>
     <row r="929" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B929" s="6" t="s">
-        <v>4132</v>
+        <v>4131</v>
       </c>
       <c r="C929" s="6">
         <v>7</v>
@@ -54768,10 +54773,10 @@
         <v>1995</v>
       </c>
       <c r="E929" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F929" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G929" s="6">
         <v>10</v>
@@ -54780,7 +54785,7 @@
     </row>
     <row r="930" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B930" s="6" t="s">
-        <v>4133</v>
+        <v>4132</v>
       </c>
       <c r="C930" s="6">
         <v>6</v>
@@ -54789,10 +54794,10 @@
         <v>958</v>
       </c>
       <c r="E930" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F930" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G930" s="6">
         <v>11</v>
@@ -54801,19 +54806,19 @@
     </row>
     <row r="931" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B931" s="6" t="s">
-        <v>4134</v>
+        <v>4133</v>
       </c>
       <c r="C931" s="6">
         <v>12</v>
       </c>
       <c r="D931" s="6" t="s">
-        <v>4135</v>
+        <v>4134</v>
       </c>
       <c r="E931" s="6" t="s">
-        <v>4119</v>
+        <v>4476</v>
       </c>
       <c r="F931" s="6" t="s">
-        <v>177</v>
+        <v>4477</v>
       </c>
       <c r="G931" s="6">
         <v>12</v>
@@ -54823,6 +54828,7 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -54844,7 +54850,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>4136</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -54852,19 +54858,19 @@
         <v>1071</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4137</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4138</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>909</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>4138</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>4139</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4140</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -54872,13 +54878,13 @@
         <v>364</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4140</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>4141</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4141</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>4142</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -54898,7 +54904,7 @@
         <v>1869</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -54918,7 +54924,7 @@
         <v>1872</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -54939,7 +54945,7 @@
         <v>1875</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -54959,7 +54965,7 @@
         <v>1878</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>4142</v>
+        <v>4141</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -54973,13 +54979,13 @@
         <v>374</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -54999,7 +55005,7 @@
         <v>1869</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -55019,7 +55025,7 @@
         <v>1872</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -55039,7 +55045,7 @@
         <v>1875</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -55053,13 +55059,13 @@
         <v>374</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>4144</v>
+        <v>4143</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -55073,13 +55079,13 @@
         <v>374</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>4145</v>
+        <v>4144</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -55093,13 +55099,13 @@
         <v>374</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -55119,7 +55125,7 @@
         <v>1895</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -55139,7 +55145,7 @@
         <v>1937</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>4143</v>
+        <v>4142</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -55153,13 +55159,13 @@
         <v>385</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>4147</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>4147</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>4148</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -55173,13 +55179,13 @@
         <v>385</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>4149</v>
+        <v>4148</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -55193,13 +55199,13 @@
         <v>385</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>4150</v>
+        <v>4149</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -55213,13 +55219,13 @@
         <v>385</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>4148</v>
+        <v>4147</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -55233,10 +55239,10 @@
         <v>395</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>4152</v>
+        <v>4151</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>394</v>
@@ -55253,10 +55259,10 @@
         <v>395</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>394</v>
@@ -55273,10 +55279,10 @@
         <v>395</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>4154</v>
+        <v>4153</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>394</v>
@@ -55293,10 +55299,10 @@
         <v>395</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>4155</v>
+        <v>4154</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>394</v>
@@ -55313,13 +55319,13 @@
         <v>357</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>4155</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>4156</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>4156</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>4157</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -55333,13 +55339,13 @@
         <v>357</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>4158</v>
+        <v>4157</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -55353,13 +55359,13 @@
         <v>357</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>4159</v>
+        <v>4158</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -55379,7 +55385,7 @@
         <v>1953</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -55399,7 +55405,7 @@
         <v>1948</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -55413,13 +55419,13 @@
         <v>357</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -55433,13 +55439,13 @@
         <v>357</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -55453,13 +55459,13 @@
         <v>357</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>4162</v>
+        <v>4161</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>4157</v>
+        <v>4156</v>
       </c>
       <c r="E32">
         <v>8</v>
@@ -55470,16 +55476,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
+        <v>4162</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>4163</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
+        <v>4163</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>4164</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>4164</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>4165</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -55490,16 +55496,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>4166</v>
+        <v>4165</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -55510,16 +55516,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>4163</v>
+        <v>4162</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>4165</v>
+        <v>4164</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -55530,16 +55536,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>4168</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
+        <v>4168</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>4169</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>4169</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>4170</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -55550,16 +55556,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>4168</v>
+        <v>4167</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>4171</v>
+        <v>4170</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -55570,16 +55576,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>4172</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="C38" s="6" t="s">
+        <v>4172</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>4173</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>4173</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>4174</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -55590,16 +55596,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -55610,16 +55616,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -55630,16 +55636,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>4172</v>
+        <v>4171</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="E41">
         <v>4</v>
@@ -55650,16 +55656,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>4178</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="6" t="s">
+        <v>4178</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>4179</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>4179</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>4180</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -55670,16 +55676,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>4176</v>
+        <v>4175</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -55690,16 +55696,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>4178</v>
+        <v>4177</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>4180</v>
+        <v>4179</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -55713,13 +55719,13 @@
         <v>663</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>4181</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>4182</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>4182</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>4183</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -55733,13 +55739,13 @@
         <v>663</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>4184</v>
+        <v>4183</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -55753,13 +55759,13 @@
         <v>663</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>4185</v>
+        <v>4184</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -55773,13 +55779,13 @@
         <v>663</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>4186</v>
+        <v>4185</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="E48">
         <v>4</v>
@@ -55793,13 +55799,13 @@
         <v>663</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>4187</v>
+        <v>4186</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>4183</v>
+        <v>4182</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -55810,16 +55816,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>4188</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>4189</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
@@ -55830,16 +55836,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>4188</v>
+        <v>4187</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>4191</v>
+        <v>4190</v>
       </c>
       <c r="C51" s="6">
         <v>2</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>4190</v>
+        <v>4189</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
@@ -55850,16 +55856,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>4192</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>4193</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
@@ -55870,16 +55876,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>4192</v>
+        <v>4191</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="C53" s="6">
         <v>2</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>4194</v>
+        <v>4193</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
@@ -55890,16 +55896,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>4196</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>4197</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="9" t="s">
         <v>4198</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>4199</v>
       </c>
       <c r="E54" s="11">
         <v>1</v>
@@ -55910,16 +55916,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>4200</v>
+        <v>4199</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="E55" s="11">
         <v>2</v>
@@ -55930,16 +55936,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>4201</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>4202</v>
-      </c>
       <c r="D56" s="9" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="E56" s="11">
         <v>3</v>
@@ -55950,16 +55956,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>4156</v>
+        <v>4155</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>4199</v>
+        <v>4198</v>
       </c>
       <c r="E57" s="11">
         <v>4</v>
@@ -55970,16 +55976,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>4193</v>
+        <v>4192</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
@@ -55990,16 +55996,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="C59" s="6">
         <v>2</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -56010,7 +56016,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>1148</v>
@@ -56019,7 +56025,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="E60" s="6">
         <v>0</v>
@@ -56030,16 +56036,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>4206</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>4207</v>
       </c>
       <c r="C61" s="6">
         <v>1</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="E61" s="6">
         <v>1</v>
@@ -56050,7 +56056,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>2606</v>
@@ -56059,7 +56065,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -56070,16 +56076,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>4209</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="C63" s="6" t="s">
+        <v>4209</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>4210</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>4210</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>4211</v>
       </c>
       <c r="E63" s="6">
         <v>1</v>
@@ -56090,16 +56096,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>4212</v>
+        <v>4211</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -56110,16 +56116,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>4213</v>
+        <v>4212</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="E65" s="6">
         <v>3</v>
@@ -56130,16 +56136,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>4209</v>
+        <v>4208</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>4214</v>
+        <v>4213</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="E66" s="6">
         <v>4</v>
@@ -56150,16 +56156,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>4215</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>4216</v>
       </c>
       <c r="C67" s="6">
         <v>4</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="E67" s="6">
         <v>4</v>
@@ -56170,16 +56176,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>4218</v>
+        <v>4217</v>
       </c>
       <c r="C68" s="6">
         <v>5</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="E68" s="6">
         <v>5</v>
@@ -56190,16 +56196,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>4219</v>
+        <v>4218</v>
       </c>
       <c r="C69" s="6">
         <v>6</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="E69" s="6">
         <v>6</v>
@@ -56210,16 +56216,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="C70" s="6">
         <v>7</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="E70" s="6">
         <v>7</v>
@@ -56230,16 +56236,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>4215</v>
+        <v>4214</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="C71" s="6">
         <v>8</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>4217</v>
+        <v>4216</v>
       </c>
       <c r="E71" s="6">
         <v>8</v>
@@ -56250,16 +56256,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>4222</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="6" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>4223</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>4223</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>4224</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -56270,16 +56276,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -56290,16 +56296,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -56310,16 +56316,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -56330,16 +56336,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -56350,16 +56356,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>4229</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="6" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>4230</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>4230</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>4231</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -56370,16 +56376,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -56390,16 +56396,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -56410,16 +56416,16 @@
     </row>
     <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>4234</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="C80" s="12" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D80" s="13" t="s">
         <v>4235</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>4235</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>4236</v>
       </c>
       <c r="E80" s="12">
         <v>1</v>
@@ -56430,16 +56436,16 @@
     </row>
     <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="E81" s="12">
         <v>2</v>
@@ -56450,16 +56456,16 @@
     </row>
     <row r="82" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="E82" s="12">
         <v>3</v>
@@ -56470,7 +56476,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>3641</v>
@@ -56479,7 +56485,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="E83" s="6">
         <v>1</v>
@@ -56490,16 +56496,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="C84" s="6">
         <v>2</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="E84" s="6">
         <v>2</v>
@@ -56510,16 +56516,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="C85" s="6">
         <v>3</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="E85" s="6">
         <v>3</v>
@@ -56530,16 +56536,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="C86" s="6">
         <v>4</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="E86" s="6">
         <v>4</v>
@@ -56550,16 +56556,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="C87" s="6">
         <v>5</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="E87" s="6">
         <v>5</v>
@@ -56570,16 +56576,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>4245</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="6" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>4246</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>4246</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>4247</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
@@ -56590,16 +56596,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="E89" s="6">
         <v>2</v>
@@ -56610,16 +56616,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>4249</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="C90" s="6" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>4250</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>4250</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>4251</v>
       </c>
       <c r="E90" s="6">
         <v>1</v>
@@ -56630,16 +56636,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="E91" s="7">
         <v>2</v>
@@ -56650,16 +56656,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>4253</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C92" s="6" t="s">
+        <v>4253</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>4254</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>4254</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>4255</v>
       </c>
       <c r="E92" s="6">
         <v>1</v>
@@ -56670,16 +56676,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="E93" s="6">
         <v>2</v>
@@ -56690,16 +56696,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="E94" s="6">
         <v>3</v>
@@ -56710,7 +56716,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>10</v>
@@ -56719,7 +56725,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="E95" s="6">
         <v>1</v>
@@ -56730,16 +56736,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>4260</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>4260</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E96" s="6">
         <v>2</v>
@@ -56750,16 +56756,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>4260</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>4261</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>4261</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E97" s="6">
         <v>3</v>
@@ -56770,16 +56776,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>4261</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>4261</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>4262</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>4262</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E98" s="6">
         <v>4</v>
@@ -56790,16 +56796,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>4262</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>4263</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>4263</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E99" s="6">
         <v>5</v>
@@ -56810,16 +56816,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>4263</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>4264</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>4264</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E100" s="6">
         <v>6</v>
@@ -56830,16 +56836,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>4264</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>4265</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>4265</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E101" s="6">
         <v>7</v>
@@ -56850,16 +56856,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>4265</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>4266</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>4266</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E102" s="6">
         <v>8</v>
@@ -56870,16 +56876,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>4267</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>4267</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E103" s="6">
         <v>9</v>
@@ -56890,16 +56896,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>4267</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>4268</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>4268</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E104" s="6">
         <v>10</v>
@@ -56910,16 +56916,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>4268</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>4269</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>4269</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E105" s="6">
         <v>11</v>
@@ -56930,16 +56936,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>4269</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>4269</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>4258</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>4270</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>4270</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>4259</v>
       </c>
       <c r="E106" s="6">
         <v>12</v>
@@ -56950,19 +56956,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>1024</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>4271</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>4272</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>4273</v>
-      </c>
       <c r="E107" s="6" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F107" s="7">
         <v>1</v>
@@ -56970,19 +56976,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>4273</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>4274</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>4275</v>
-      </c>
       <c r="D108" s="9" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="F108" s="7">
         <v>2</v>
@@ -56990,19 +56996,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>4276</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>4277</v>
-      </c>
       <c r="D109" s="9" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="F109" s="7">
         <v>3</v>
@@ -57010,16 +57016,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>4278</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="C110" s="6" t="s">
+        <v>4278</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>4279</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>4279</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>4280</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -57030,16 +57036,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -57050,16 +57056,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -57070,16 +57076,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>4283</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="C113" s="6" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D113" s="9" t="s">
         <v>4284</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>4284</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>4285</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -57090,16 +57096,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -57110,16 +57116,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -57130,16 +57136,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -57150,16 +57156,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -57170,16 +57176,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>4289</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="C118" s="6" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>4290</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>4290</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>4291</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -57190,16 +57196,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -57210,16 +57216,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="E120">
         <v>3</v>
@@ -57230,16 +57236,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="E121">
         <v>4</v>
@@ -57250,16 +57256,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -57270,16 +57276,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>4296</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="C123" s="6" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D123" s="9" t="s">
         <v>4297</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>4297</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>4298</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -57290,16 +57296,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -57310,16 +57316,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -57330,16 +57336,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>4301</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="C126" s="6" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D126" s="9" t="s">
         <v>4302</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>4302</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>4303</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -57350,16 +57356,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -57370,16 +57376,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B128" s="6" t="s">
         <v>4305</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="C128" s="6" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D128" s="9" t="s">
         <v>4306</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>4306</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>4307</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -57390,16 +57396,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -57410,16 +57416,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>4309</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>4310</v>
       </c>
       <c r="C130" s="6">
         <v>0</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="E130" s="6">
         <v>0</v>
@@ -57430,16 +57436,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="C131" s="6">
         <v>1</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="E131" s="6">
         <v>1</v>
@@ -57450,16 +57456,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="C132" s="6">
         <v>2</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="E132" s="6">
         <v>2</v>
@@ -57470,16 +57476,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>4314</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="C133" s="6" t="s">
+        <v>4314</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>4315</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>4315</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>4316</v>
       </c>
       <c r="E133" s="11">
         <v>1</v>
@@ -57490,16 +57496,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="E134" s="11">
         <v>2</v>
@@ -57510,7 +57516,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>950</v>
@@ -57519,7 +57525,7 @@
         <v>950</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="E135" s="11">
         <v>1</v>
@@ -57530,7 +57536,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>2603</v>
@@ -57539,7 +57545,7 @@
         <v>2603</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="E136" s="11">
         <v>2</v>
@@ -57550,7 +57556,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>2606</v>
@@ -57559,7 +57565,7 @@
         <v>2606</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="E137" s="11">
         <v>3</v>
@@ -57570,7 +57576,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>3203</v>
@@ -57579,7 +57585,7 @@
         <v>3203</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="E138" s="11">
         <v>1</v>
@@ -57590,7 +57596,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>3208</v>
@@ -57599,7 +57605,7 @@
         <v>3208</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="E139" s="11">
         <v>2</v>
@@ -57613,13 +57619,13 @@
         <v>428</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>4321</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>4322</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>4322</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>4323</v>
       </c>
       <c r="E140" s="11">
         <v>1</v>
@@ -57633,13 +57639,13 @@
         <v>428</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="E141" s="11">
         <v>2</v>
@@ -57653,13 +57659,13 @@
         <v>411</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>4324</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>4325</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>4325</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>4326</v>
       </c>
       <c r="E142" s="11">
         <v>1</v>
@@ -57673,13 +57679,13 @@
         <v>411</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="E143" s="11">
         <v>2</v>
@@ -57693,13 +57699,13 @@
         <v>448</v>
       </c>
       <c r="B144" s="6" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>4327</v>
+      </c>
+      <c r="D144" s="9" t="s">
         <v>4328</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>4328</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>4329</v>
       </c>
       <c r="E144" s="11">
         <v>1</v>
@@ -57713,13 +57719,13 @@
         <v>448</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="E145" s="11">
         <v>2</v>
@@ -57733,13 +57739,13 @@
         <v>448</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="E146" s="11">
         <v>3</v>
@@ -57753,13 +57759,13 @@
         <v>455</v>
       </c>
       <c r="B147" s="6" t="s">
+        <v>4331</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>4331</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>4332</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>4332</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>4333</v>
       </c>
       <c r="E147" s="11">
         <v>1</v>
@@ -57773,13 +57779,13 @@
         <v>455</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="E148" s="11">
         <v>2</v>
@@ -57793,13 +57799,13 @@
         <v>473</v>
       </c>
       <c r="B149" s="6" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>4334</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>4335</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>4335</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>4336</v>
       </c>
       <c r="E149" s="11">
         <v>1</v>
@@ -57813,13 +57819,13 @@
         <v>473</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E150" s="11">
         <v>2</v>
@@ -57833,13 +57839,13 @@
         <v>473</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>4338</v>
+        <v>4337</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E151" s="11">
         <v>3</v>
@@ -57853,13 +57859,13 @@
         <v>473</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>4339</v>
+        <v>4338</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E152" s="11">
         <v>4</v>
@@ -57873,13 +57879,13 @@
         <v>473</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E153" s="11">
         <v>5</v>
@@ -57893,13 +57899,13 @@
         <v>473</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E154" s="11">
         <v>6</v>
@@ -57913,13 +57919,13 @@
         <v>473</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E155" s="11">
         <v>7</v>
@@ -57933,13 +57939,13 @@
         <v>473</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="E156" s="11">
         <v>8</v>
@@ -57953,13 +57959,13 @@
         <v>541</v>
       </c>
       <c r="B157" s="6" t="s">
+        <v>4343</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D157" s="9" t="s">
         <v>4344</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>4344</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>4345</v>
       </c>
       <c r="E157" s="11">
         <v>1</v>
@@ -57973,13 +57979,13 @@
         <v>541</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="E158" s="11">
         <v>2</v>
@@ -57990,16 +57996,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>4347</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="6" t="s">
+        <v>4347</v>
+      </c>
+      <c r="D159" s="9" t="s">
         <v>4348</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>4348</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>4349</v>
       </c>
       <c r="E159" s="11">
         <v>1</v>
@@ -58010,16 +58016,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="E160" s="11">
         <v>2</v>
@@ -58030,16 +58036,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="E161" s="11">
         <v>3</v>
@@ -58050,7 +58056,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>3641</v>
@@ -58059,7 +58065,7 @@
         <v>3641</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="E162" s="11">
         <v>1</v>
@@ -58070,16 +58076,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>4240</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>4352</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>4241</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>4241</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>4353</v>
       </c>
       <c r="E163" s="11">
         <v>2</v>
@@ -58090,16 +58096,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>4241</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D164" s="9" t="s">
         <v>4352</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>4242</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>4242</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>4353</v>
       </c>
       <c r="E164" s="11">
         <v>3</v>
@@ -58113,13 +58119,13 @@
         <v>797</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>4353</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>4353</v>
+      </c>
+      <c r="D165" s="9" t="s">
         <v>4354</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>4354</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>4355</v>
       </c>
       <c r="E165" s="11">
         <v>1</v>
@@ -58133,13 +58139,13 @@
         <v>797</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E166" s="11">
         <v>2</v>
@@ -58153,13 +58159,13 @@
         <v>797</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E167" s="11">
         <v>3</v>
@@ -58173,13 +58179,13 @@
         <v>797</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E168" s="11">
         <v>4</v>
@@ -58193,13 +58199,13 @@
         <v>797</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>4359</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>4360</v>
-      </c>
       <c r="D169" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E169" s="11">
         <v>5</v>
@@ -58213,13 +58219,13 @@
         <v>797</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>4361</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>4362</v>
-      </c>
       <c r="D170" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E170" s="11">
         <v>6</v>
@@ -58233,13 +58239,13 @@
         <v>797</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E171" s="11">
         <v>7</v>
@@ -58253,13 +58259,13 @@
         <v>797</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E172" s="11">
         <v>8</v>
@@ -58279,7 +58285,7 @@
         <v>1895</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="E173" s="11">
         <v>9</v>
@@ -58293,13 +58299,13 @@
         <v>469</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>4365</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>4365</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>4366</v>
       </c>
       <c r="E174" s="11">
         <v>1</v>
@@ -58313,13 +58319,13 @@
         <v>469</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="E175" s="11">
         <v>2</v>
@@ -58333,13 +58339,13 @@
         <v>469</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="E176" s="11">
         <v>3</v>
@@ -58359,7 +58365,7 @@
         <v>1895</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="E177" s="11">
         <v>4</v>
@@ -58370,16 +58376,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>4369</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="C178" s="6" t="s">
+        <v>4369</v>
+      </c>
+      <c r="D178" s="9" t="s">
         <v>4370</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>4370</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>4371</v>
       </c>
       <c r="E178" s="11">
         <v>1</v>
@@ -58390,16 +58396,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="E179" s="11">
         <v>2</v>
@@ -58410,16 +58416,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>4373</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="C180" s="6" t="s">
+        <v>4373</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>4374</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>4374</v>
-      </c>
-      <c r="D180" s="9" t="s">
-        <v>4375</v>
       </c>
       <c r="E180" s="11">
         <v>1</v>
@@ -58430,16 +58436,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="E181" s="11">
         <v>2</v>
@@ -58450,16 +58456,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B182" s="6" t="s">
         <v>4377</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="C182" s="6" t="s">
+        <v>4377</v>
+      </c>
+      <c r="D182" s="9" t="s">
         <v>4378</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>4378</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>4379</v>
       </c>
       <c r="E182" s="11">
         <v>1</v>
@@ -58470,16 +58476,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="E183" s="11">
         <v>2</v>
@@ -58490,16 +58496,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>4381</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" s="6" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D184" s="9" t="s">
         <v>4382</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>4382</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>4383</v>
       </c>
       <c r="E184" s="11">
         <v>1</v>
@@ -58510,7 +58516,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>2778</v>
@@ -58519,7 +58525,7 @@
         <v>2778</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="E185" s="11">
         <v>2</v>
@@ -58530,16 +58536,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="E186" s="11">
         <v>3</v>
@@ -58550,16 +58556,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>4385</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="6" t="s">
+        <v>4385</v>
+      </c>
+      <c r="D187" s="9" t="s">
         <v>4386</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>4386</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>4387</v>
       </c>
       <c r="E187" s="11">
         <v>1</v>
@@ -58570,16 +58576,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="E188" s="11">
         <v>2</v>
@@ -58590,16 +58596,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="E189" s="11">
         <v>3</v>
@@ -58610,16 +58616,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>4390</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="6" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D190" s="9" t="s">
         <v>4391</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>4391</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>4392</v>
       </c>
       <c r="E190" s="11">
         <v>1</v>
@@ -58630,16 +58636,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="E191" s="11">
         <v>2</v>
@@ -58650,16 +58656,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>4390</v>
+        <v>4389</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>4394</v>
+        <v>4393</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="E192" s="11">
         <v>3</v>
@@ -58670,16 +58676,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>4395</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="6" t="s">
+        <v>4395</v>
+      </c>
+      <c r="D193" s="9" t="s">
         <v>4396</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>4396</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>4397</v>
       </c>
       <c r="E193" s="11">
         <v>1</v>
@@ -58690,16 +58696,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="E194" s="11">
         <v>2</v>
@@ -58710,16 +58716,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="E195" s="11">
         <v>3</v>
@@ -58730,16 +58736,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="E196" s="11">
         <v>4</v>
@@ -58750,16 +58756,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>4395</v>
+        <v>4394</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="E197" s="11">
         <v>5</v>
@@ -58770,16 +58776,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>4402</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="6" t="s">
+        <v>4402</v>
+      </c>
+      <c r="D198" s="9" t="s">
         <v>4403</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>4403</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>4404</v>
       </c>
       <c r="E198" s="11">
         <v>1</v>
@@ -58790,16 +58796,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="E199" s="11">
         <v>2</v>
@@ -58810,16 +58816,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="E200" s="11">
         <v>3</v>
@@ -58830,16 +58836,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>4407</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>4408</v>
       </c>
       <c r="C201" s="6">
         <v>0</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="E201" s="6">
         <v>0</v>
@@ -58850,16 +58856,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="C202" s="6">
         <v>14</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="E202" s="6">
         <v>14</v>
@@ -58870,16 +58876,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>4411</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="C203" s="6" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D203" s="9" t="s">
         <v>4412</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>4412</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>4413</v>
       </c>
       <c r="E203" s="11">
         <v>1</v>
@@ -58890,16 +58896,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E204" s="11">
         <v>2</v>
@@ -58910,16 +58916,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E205" s="11">
         <v>3</v>
@@ -58930,16 +58936,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E206" s="11">
         <v>4</v>
@@ -58950,16 +58956,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E207" s="11">
         <v>5</v>
@@ -58970,16 +58976,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E208" s="11">
         <v>6</v>
@@ -58990,16 +58996,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E209" s="11">
         <v>7</v>
@@ -59010,16 +59016,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E210" s="11">
         <v>8</v>
@@ -59030,16 +59036,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E211" s="11">
         <v>9</v>
@@ -59050,16 +59056,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="E212" s="11">
         <v>10</v>
@@ -59070,16 +59076,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>4423</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>4424</v>
       </c>
       <c r="C213" s="6">
         <v>0</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="E213" s="6">
         <v>0</v>
@@ -59090,16 +59096,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="C214" s="6">
         <v>1</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="E214" s="6">
         <v>1</v>
@@ -59110,7 +59116,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>4073</v>
@@ -59119,7 +59125,7 @@
         <v>4073</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="E215" s="11">
         <v>1</v>
@@ -59130,16 +59136,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D216" s="9" t="s">
         <v>4427</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>4429</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>4429</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>4428</v>
       </c>
       <c r="E216" s="11">
         <v>2</v>
@@ -59150,7 +59156,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>4078</v>
@@ -59159,7 +59165,7 @@
         <v>4078</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
       <c r="E217" s="11">
         <v>3</v>
@@ -59170,16 +59176,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B218" s="6" t="s">
         <v>4430</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="C218" s="6" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D218" s="9" t="s">
         <v>4431</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>4431</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>4432</v>
       </c>
       <c r="E218" s="11">
         <v>1</v>
@@ -59190,7 +59196,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>2592</v>
@@ -59199,7 +59205,7 @@
         <v>2592</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="E219" s="11">
         <v>2</v>
@@ -59210,16 +59216,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="E220" s="11">
         <v>3</v>
@@ -59230,16 +59236,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="E221" s="11">
         <v>4</v>
@@ -59250,7 +59256,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>1148</v>
@@ -59259,7 +59265,7 @@
         <v>1148</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="E222" s="11">
         <v>5</v>
@@ -59270,16 +59276,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>4435</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="C223" s="6" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D223" s="9" t="s">
         <v>4436</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>4436</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>4437</v>
       </c>
       <c r="E223" s="11">
         <v>1</v>
@@ -59290,16 +59296,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="E224" s="11">
         <v>2</v>
@@ -59310,16 +59316,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="E225" s="11">
         <v>3</v>
@@ -59330,16 +59336,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>4440</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="C226" s="6" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D226" s="9" t="s">
         <v>4441</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>4441</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>4442</v>
       </c>
       <c r="E226" s="11">
         <v>1</v>
@@ -59350,16 +59356,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>4443</v>
+        <v>4442</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="E227" s="11">
         <v>2</v>
@@ -59370,16 +59376,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="E228" s="11">
         <v>3</v>
@@ -59390,16 +59396,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="E229" s="11">
         <v>4</v>
@@ -59410,16 +59416,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="E230" s="11">
         <v>5</v>
@@ -59430,16 +59436,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
       <c r="E231" s="11">
         <v>6</v>
@@ -59453,10 +59459,10 @@
         <v>809</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>4448</v>
+        <v>4447</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>808</v>
@@ -59473,10 +59479,10 @@
         <v>809</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>808</v>
@@ -59493,10 +59499,10 @@
         <v>809</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>808</v>
@@ -59510,16 +59516,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="14" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>4160</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>4160</v>
+      </c>
+      <c r="D236" s="15" t="s">
         <v>4449</v>
-      </c>
-      <c r="B236" s="14" t="s">
-        <v>4161</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>4161</v>
-      </c>
-      <c r="D236" s="15" t="s">
-        <v>4450</v>
       </c>
       <c r="E236" s="16">
         <v>1</v>
@@ -59530,16 +59536,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="14" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D237" s="15" t="s">
         <v>4449</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>4162</v>
-      </c>
-      <c r="C237" s="14" t="s">
-        <v>4162</v>
-      </c>
-      <c r="D237" s="15" t="s">
-        <v>4450</v>
       </c>
       <c r="E237" s="16">
         <v>2</v>
@@ -59650,7 +59656,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="14" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B243" s="14" t="s">
         <v>2910</v>
@@ -59670,7 +59676,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="14" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B244" s="14" t="s">
         <v>2905</v>
@@ -59699,7 +59705,7 @@
         <v>2905</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E245" s="15">
         <v>1</v>
@@ -59719,7 +59725,7 @@
         <v>2910</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E246" s="15">
         <v>2</v>
@@ -59733,13 +59739,13 @@
         <v>2907</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E247" s="15">
         <v>3</v>
@@ -59759,7 +59765,7 @@
         <v>2913</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E248" s="15">
         <v>4</v>
@@ -59779,7 +59785,7 @@
         <v>2916</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E249" s="15">
         <v>5</v>
@@ -59799,7 +59805,7 @@
         <v>2919</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E250" s="15">
         <v>6</v>
@@ -59873,7 +59879,7 @@
         <v>1122</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="C254" s="14" t="s">
         <v>3262</v>
@@ -59893,7 +59899,7 @@
         <v>1122</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="C255" s="14" t="s">
         <v>3266</v>

--- a/doc/核心人力表结构NEW-20200910.xlsx
+++ b/doc/核心人力表结构NEW-20200910.xlsx
@@ -2827,7 +2827,7 @@
     <t>是否启用（0:禁用 , 1:启用）</t>
   </si>
   <si>
-    <t>excute_date</t>
+    <t>execute_date</t>
   </si>
   <si>
     <t>奖惩时间</t>
@@ -18902,8 +18902,8 @@
   <sheetPr/>
   <dimension ref="A1:Q257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K165" workbookViewId="0">
-      <selection activeCell="O191" sqref="O191"/>
+    <sheetView tabSelected="1" topLeftCell="K186" workbookViewId="0">
+      <selection activeCell="Q194" sqref="Q194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
